--- a/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
+++ b/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
@@ -14712,7 +14712,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>TIGO</t>
+          <t>FTAI</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -14721,16 +14721,16 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>42.05</v>
+        <v>136.06</v>
       </c>
       <c r="D596" t="n">
-        <v>62.22</v>
+        <v>276.01</v>
       </c>
       <c r="E596" t="n">
-        <v>47.97</v>
+        <v>102.86</v>
       </c>
       <c r="F596" t="n">
-        <v>1.76795</v>
+        <v>11.21528</v>
       </c>
     </row>
     <row r="597">
@@ -14856,7 +14856,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>AKAM</t>
+          <t>MOG-B</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -14865,22 +14865,22 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>70.53</v>
+        <v>194.99</v>
       </c>
       <c r="D602" t="n">
-        <v>99.34999999999999</v>
+        <v>295</v>
       </c>
       <c r="E602" t="n">
-        <v>40.86</v>
+        <v>51.29</v>
       </c>
       <c r="F602" t="n">
-        <v>3.37612</v>
+        <v>6.99596</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>KRMN</t>
+          <t>AKAM</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -14889,22 +14889,22 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>45.78</v>
+        <v>70.53</v>
       </c>
       <c r="D603" t="n">
-        <v>110.93</v>
+        <v>99.34999999999999</v>
       </c>
       <c r="E603" t="n">
-        <v>142.31</v>
+        <v>40.86</v>
       </c>
       <c r="F603" t="n">
-        <v>4.87571</v>
+        <v>3.37612</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>ADI</t>
+          <t>KRMN</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -14913,22 +14913,22 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>223.95</v>
+        <v>45.78</v>
       </c>
       <c r="D604" t="n">
-        <v>318.7</v>
+        <v>110.93</v>
       </c>
       <c r="E604" t="n">
-        <v>42.31</v>
+        <v>142.31</v>
       </c>
       <c r="F604" t="n">
-        <v>6.15998</v>
+        <v>4.87571</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>TEVA</t>
+          <t>ADI</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -14937,22 +14937,22 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>16.37</v>
+        <v>223.95</v>
       </c>
       <c r="D605" t="n">
-        <v>33.07</v>
+        <v>318.7</v>
       </c>
       <c r="E605" t="n">
-        <v>102.02</v>
+        <v>42.31</v>
       </c>
       <c r="F605" t="n">
-        <v>0.43058</v>
+        <v>6.15998</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>COR</t>
+          <t>BIO-B</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -14961,22 +14961,22 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>285.13</v>
+        <v>247.05</v>
       </c>
       <c r="D606" t="n">
-        <v>352.1</v>
+        <v>312.75</v>
       </c>
       <c r="E606" t="n">
-        <v>23.49</v>
+        <v>26.59</v>
       </c>
       <c r="F606" t="n">
-        <v>2.00138</v>
+        <v>0.4732</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>FTAI</t>
+          <t>TEVA</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -14985,22 +14985,22 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>136.06</v>
+        <v>16.37</v>
       </c>
       <c r="D607" t="n">
-        <v>276.01</v>
+        <v>33.07</v>
       </c>
       <c r="E607" t="n">
-        <v>102.86</v>
+        <v>102.02</v>
       </c>
       <c r="F607" t="n">
-        <v>11.21528</v>
+        <v>0.43058</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>BNS</t>
+          <t>COR</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
@@ -15009,22 +15009,22 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>56</v>
+        <v>285.13</v>
       </c>
       <c r="D608" t="n">
-        <v>76.42</v>
+        <v>352.1</v>
       </c>
       <c r="E608" t="n">
-        <v>36.46</v>
+        <v>23.49</v>
       </c>
       <c r="F608" t="n">
-        <v>0.83523</v>
+        <v>2.00138</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>BNS</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -15033,22 +15033,22 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>89.08</v>
+        <v>56</v>
       </c>
       <c r="D609" t="n">
-        <v>137.38</v>
+        <v>76.42</v>
       </c>
       <c r="E609" t="n">
-        <v>54.22</v>
+        <v>36.46</v>
       </c>
       <c r="F609" t="n">
-        <v>3.23044</v>
+        <v>0.83523</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>SAN</t>
+          <t>TIGO</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -15057,22 +15057,22 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>9.31</v>
+        <v>42.05</v>
       </c>
       <c r="D610" t="n">
-        <v>12.81</v>
+        <v>62.22</v>
       </c>
       <c r="E610" t="n">
-        <v>37.59</v>
+        <v>47.97</v>
       </c>
       <c r="F610" t="n">
-        <v>0.26373</v>
+        <v>1.76795</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>SLF</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -15081,22 +15081,22 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>56.54</v>
+        <v>89.08</v>
       </c>
       <c r="D611" t="n">
-        <v>63.79</v>
+        <v>137.38</v>
       </c>
       <c r="E611" t="n">
-        <v>12.82</v>
+        <v>54.22</v>
       </c>
       <c r="F611" t="n">
-        <v>0.28712</v>
+        <v>3.23044</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>GH</t>
+          <t>SAN</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -15105,22 +15105,22 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>54.23</v>
+        <v>9.31</v>
       </c>
       <c r="D612" t="n">
-        <v>110.48</v>
+        <v>12.81</v>
       </c>
       <c r="E612" t="n">
-        <v>103.72</v>
+        <v>37.59</v>
       </c>
       <c r="F612" t="n">
-        <v>0.8918199999999999</v>
+        <v>0.26373</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>BBIO</t>
+          <t>SLF</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -15129,22 +15129,22 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>46.58</v>
+        <v>56.54</v>
       </c>
       <c r="D613" t="n">
-        <v>79.09999999999999</v>
+        <v>63.79</v>
       </c>
       <c r="E613" t="n">
-        <v>69.81999999999999</v>
+        <v>12.82</v>
       </c>
       <c r="F613" t="n">
-        <v>0.51568</v>
+        <v>0.28712</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>GH</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -15153,22 +15153,22 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>36.8</v>
+        <v>54.23</v>
       </c>
       <c r="D614" t="n">
-        <v>156.51</v>
+        <v>110.48</v>
       </c>
       <c r="E614" t="n">
-        <v>325.3</v>
+        <v>103.72</v>
       </c>
       <c r="F614" t="n">
-        <v>8.80753</v>
+        <v>0.8918199999999999</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>ARWR</t>
+          <t>BBIO</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -15177,22 +15177,22 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>16.42</v>
+        <v>46.58</v>
       </c>
       <c r="D615" t="n">
-        <v>69.12</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="E615" t="n">
-        <v>320.95</v>
+        <v>69.81999999999999</v>
       </c>
       <c r="F615" t="n">
-        <v>0.34305</v>
+        <v>0.51568</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -15201,22 +15201,22 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>45.58</v>
+        <v>36.8</v>
       </c>
       <c r="D616" t="n">
-        <v>59.46</v>
+        <v>156.51</v>
       </c>
       <c r="E616" t="n">
-        <v>30.45</v>
+        <v>325.3</v>
       </c>
       <c r="F616" t="n">
-        <v>0.47873</v>
+        <v>8.80753</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>ARWR</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -15225,22 +15225,22 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>19.95</v>
+        <v>16.42</v>
       </c>
       <c r="D617" t="n">
-        <v>48.66</v>
+        <v>69.12</v>
       </c>
       <c r="E617" t="n">
-        <v>143.91</v>
+        <v>320.95</v>
       </c>
       <c r="F617" t="n">
-        <v>0.39579</v>
+        <v>0.34305</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>FNV</t>
+          <t>EDU</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
@@ -15249,22 +15249,22 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>171.59</v>
+        <v>45.58</v>
       </c>
       <c r="D618" t="n">
-        <v>261.77</v>
+        <v>59.46</v>
       </c>
       <c r="E618" t="n">
-        <v>52.56</v>
+        <v>30.45</v>
       </c>
       <c r="F618" t="n">
-        <v>9.51144</v>
+        <v>0.47873</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>VIK</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -15273,22 +15273,22 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>56.58</v>
+        <v>19.95</v>
       </c>
       <c r="D619" t="n">
-        <v>74.29000000000001</v>
+        <v>48.66</v>
       </c>
       <c r="E619" t="n">
-        <v>31.3</v>
+        <v>143.91</v>
       </c>
       <c r="F619" t="n">
-        <v>0.12575</v>
+        <v>0.39579</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>FNV</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -15297,64 +15297,64 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>164.93</v>
+        <v>171.59</v>
       </c>
       <c r="D620" t="n">
-        <v>189.8</v>
+        <v>261.77</v>
       </c>
       <c r="E620" t="n">
-        <v>15.08</v>
+        <v>52.56</v>
       </c>
       <c r="F620" t="n">
-        <v>0.43519</v>
+        <v>9.51144</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>BIO-B</t>
+          <t>VIK</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="C621" t="n">
-        <v>247.05</v>
+        <v>56.58</v>
       </c>
       <c r="D621" t="n">
-        <v>312.75</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="E621" t="n">
-        <v>26.59</v>
+        <v>31.3</v>
       </c>
       <c r="F621" t="n">
-        <v>0.52301</v>
+        <v>0.12575</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>MOG-B</t>
+          <t>SPG</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="C622" t="n">
-        <v>194.99</v>
+        <v>164.93</v>
       </c>
       <c r="D622" t="n">
-        <v>295</v>
+        <v>189.8</v>
       </c>
       <c r="E622" t="n">
-        <v>51.29</v>
+        <v>15.08</v>
       </c>
       <c r="F622" t="n">
-        <v>7.73238</v>
+        <v>0.43519</v>
       </c>
     </row>
   </sheetData>

--- a/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
+++ b/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
@@ -1554,7 +1554,7 @@
         <v>14.93</v>
       </c>
       <c r="F47" t="n">
-        <v>4.75909</v>
+        <v>5.61632</v>
       </c>
     </row>
     <row r="48">
@@ -8682,7 +8682,7 @@
         <v>12.53</v>
       </c>
       <c r="F344" t="n">
-        <v>0.71567</v>
+        <v>0.71615</v>
       </c>
     </row>
     <row r="345">
@@ -11712,7 +11712,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>TSEM</t>
+          <t>PBA</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -11721,22 +11721,22 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>46.1</v>
+        <v>35.66</v>
       </c>
       <c r="D471" t="n">
-        <v>134.73</v>
+        <v>41.58</v>
       </c>
       <c r="E471" t="n">
-        <v>192.26</v>
+        <v>16.6</v>
       </c>
       <c r="F471" t="n">
-        <v>3.625</v>
+        <v>0.98613</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>BKR</t>
+          <t>TSEM</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -11745,22 +11745,22 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>42.51</v>
+        <v>46.1</v>
       </c>
       <c r="D472" t="n">
-        <v>56.04</v>
+        <v>134.73</v>
       </c>
       <c r="E472" t="n">
-        <v>31.83</v>
+        <v>192.26</v>
       </c>
       <c r="F472" t="n">
-        <v>1.85609</v>
+        <v>3.625</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>ONC</t>
+          <t>BKR</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -11769,22 +11769,22 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>288.1</v>
+        <v>42.51</v>
       </c>
       <c r="D473" t="n">
-        <v>340.38</v>
+        <v>56.04</v>
       </c>
       <c r="E473" t="n">
-        <v>18.15</v>
+        <v>31.83</v>
       </c>
       <c r="F473" t="n">
-        <v>3.91255</v>
+        <v>1.85609</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>ESLT</t>
+          <t>ONC</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -11793,22 +11793,22 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>437.18</v>
+        <v>288.1</v>
       </c>
       <c r="D474" t="n">
-        <v>702.5700000000001</v>
+        <v>340.38</v>
       </c>
       <c r="E474" t="n">
-        <v>60.7</v>
+        <v>18.15</v>
       </c>
       <c r="F474" t="n">
-        <v>16.74062</v>
+        <v>3.91255</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>ARGX</t>
+          <t>ESLT</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -11817,22 +11817,22 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>637.5599999999999</v>
+        <v>437.18</v>
       </c>
       <c r="D475" t="n">
-        <v>840.5</v>
+        <v>702.5700000000001</v>
       </c>
       <c r="E475" t="n">
-        <v>31.83</v>
+        <v>60.7</v>
       </c>
       <c r="F475" t="n">
-        <v>8.72148</v>
+        <v>16.74062</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>PBA</t>
+          <t>ARGX</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -11841,16 +11841,16 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>35.66</v>
+        <v>637.5599999999999</v>
       </c>
       <c r="D476" t="n">
-        <v>41.58</v>
+        <v>840.5</v>
       </c>
       <c r="E476" t="n">
-        <v>16.6</v>
+        <v>31.83</v>
       </c>
       <c r="F476" t="n">
-        <v>0.98613</v>
+        <v>8.72148</v>
       </c>
     </row>
     <row r="477">
@@ -11880,7 +11880,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>EC</t>
+          <t>AER</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -11889,22 +11889,22 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>8.529999999999999</v>
+        <v>110.37</v>
       </c>
       <c r="D478" t="n">
-        <v>12.57</v>
+        <v>143.66</v>
       </c>
       <c r="E478" t="n">
-        <v>47.36</v>
+        <v>30.16</v>
       </c>
       <c r="F478" t="n">
-        <v>0.4364</v>
+        <v>0.01965</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>AER</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -11913,22 +11913,22 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>110.37</v>
+        <v>92.31</v>
       </c>
       <c r="D479" t="n">
-        <v>143.66</v>
+        <v>115.71</v>
       </c>
       <c r="E479" t="n">
-        <v>30.16</v>
+        <v>25.35</v>
       </c>
       <c r="F479" t="n">
-        <v>0.01965</v>
+        <v>-0.25797</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>EDU</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -11937,22 +11937,22 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>92.31</v>
+        <v>45.6</v>
       </c>
       <c r="D480" t="n">
-        <v>115.71</v>
+        <v>60.38</v>
       </c>
       <c r="E480" t="n">
-        <v>25.35</v>
+        <v>32.41</v>
       </c>
       <c r="F480" t="n">
-        <v>-0.25797</v>
+        <v>0.88266</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>NVS</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -11961,22 +11961,22 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>45.6</v>
+        <v>118.55</v>
       </c>
       <c r="D481" t="n">
-        <v>60.38</v>
+        <v>148.68</v>
       </c>
       <c r="E481" t="n">
-        <v>32.41</v>
+        <v>25.42</v>
       </c>
       <c r="F481" t="n">
-        <v>0.88266</v>
+        <v>2.23073</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>NVS</t>
+          <t>AXSM</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -11985,22 +11985,22 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>118.55</v>
+        <v>103.96</v>
       </c>
       <c r="D482" t="n">
-        <v>148.68</v>
+        <v>184.25</v>
       </c>
       <c r="E482" t="n">
-        <v>25.42</v>
+        <v>77.23</v>
       </c>
       <c r="F482" t="n">
-        <v>2.23073</v>
+        <v>3.66948</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>AXSM</t>
+          <t>CFG</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -12009,22 +12009,22 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>103.96</v>
+        <v>46.93</v>
       </c>
       <c r="D483" t="n">
-        <v>184.25</v>
+        <v>62.98</v>
       </c>
       <c r="E483" t="n">
-        <v>77.23</v>
+        <v>34.2</v>
       </c>
       <c r="F483" t="n">
-        <v>3.66948</v>
+        <v>0.7666500000000001</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>CFG</t>
+          <t>ARWR</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -12033,22 +12033,22 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>46.93</v>
+        <v>17.21</v>
       </c>
       <c r="D484" t="n">
-        <v>62.98</v>
+        <v>69.33</v>
       </c>
       <c r="E484" t="n">
-        <v>34.2</v>
+        <v>302.85</v>
       </c>
       <c r="F484" t="n">
-        <v>0.7666500000000001</v>
+        <v>0.54943</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>ARWR</t>
+          <t>EC</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -12057,16 +12057,16 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>17.21</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="D485" t="n">
-        <v>69.33</v>
+        <v>12.57</v>
       </c>
       <c r="E485" t="n">
-        <v>302.85</v>
+        <v>47.36</v>
       </c>
       <c r="F485" t="n">
-        <v>0.54943</v>
+        <v>0.4364</v>
       </c>
     </row>
     <row r="486">
@@ -12312,7 +12312,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>SAN</t>
+          <t>BIO-B</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -12321,22 +12321,22 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>9.32</v>
+        <v>247.05</v>
       </c>
       <c r="D496" t="n">
-        <v>12.75</v>
+        <v>312.75</v>
       </c>
       <c r="E496" t="n">
-        <v>36.8</v>
+        <v>26.59</v>
       </c>
       <c r="F496" t="n">
-        <v>0.24623</v>
+        <v>0.42814</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>DINO</t>
+          <t>SAN</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -12345,22 +12345,22 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>43.24</v>
+        <v>9.32</v>
       </c>
       <c r="D497" t="n">
-        <v>51.99</v>
+        <v>12.75</v>
       </c>
       <c r="E497" t="n">
-        <v>20.24</v>
+        <v>36.8</v>
       </c>
       <c r="F497" t="n">
-        <v>0.63493</v>
+        <v>0.24623</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>BIIB</t>
+          <t>DINO</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -12369,22 +12369,22 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>128</v>
+        <v>43.24</v>
       </c>
       <c r="D498" t="n">
-        <v>179.89</v>
+        <v>51.99</v>
       </c>
       <c r="E498" t="n">
-        <v>40.54</v>
+        <v>20.24</v>
       </c>
       <c r="F498" t="n">
-        <v>0.7155899999999999</v>
+        <v>0.63493</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>APA</t>
+          <t>SITM</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -12393,22 +12393,22 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>19.92</v>
+        <v>203.06</v>
       </c>
       <c r="D499" t="n">
-        <v>26.41</v>
+        <v>363.11</v>
       </c>
       <c r="E499" t="n">
-        <v>32.58</v>
+        <v>78.81999999999999</v>
       </c>
       <c r="F499" t="n">
-        <v>0.2598</v>
+        <v>2.69123</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>CIB</t>
+          <t>APA</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -12417,22 +12417,22 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>48.06</v>
+        <v>19.92</v>
       </c>
       <c r="D500" t="n">
-        <v>81.65000000000001</v>
+        <v>26.41</v>
       </c>
       <c r="E500" t="n">
-        <v>69.89</v>
+        <v>32.58</v>
       </c>
       <c r="F500" t="n">
-        <v>3.18051</v>
+        <v>0.2598</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>EXAS</t>
+          <t>CIB</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -12441,22 +12441,22 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>40.91</v>
+        <v>48.06</v>
       </c>
       <c r="D501" t="n">
-        <v>102.34</v>
+        <v>81.65000000000001</v>
       </c>
       <c r="E501" t="n">
-        <v>150.16</v>
+        <v>69.89</v>
       </c>
       <c r="F501" t="n">
-        <v>0.20281</v>
+        <v>3.18051</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>RCI</t>
+          <t>EXAS</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -12465,22 +12465,22 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>33.89</v>
+        <v>40.91</v>
       </c>
       <c r="D502" t="n">
-        <v>37.81</v>
+        <v>102.34</v>
       </c>
       <c r="E502" t="n">
-        <v>11.57</v>
+        <v>150.16</v>
       </c>
       <c r="F502" t="n">
-        <v>0.23783</v>
+        <v>0.20281</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>PFG</t>
+          <t>RCI</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -12489,22 +12489,22 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>76.48</v>
+        <v>33.89</v>
       </c>
       <c r="D503" t="n">
-        <v>94.72</v>
+        <v>37.81</v>
       </c>
       <c r="E503" t="n">
-        <v>23.85</v>
+        <v>11.57</v>
       </c>
       <c r="F503" t="n">
-        <v>1.22428</v>
+        <v>0.23783</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>SBS</t>
+          <t>PFG</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -12513,22 +12513,22 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>20.31</v>
+        <v>76.48</v>
       </c>
       <c r="D504" t="n">
-        <v>26.86</v>
+        <v>94.72</v>
       </c>
       <c r="E504" t="n">
-        <v>32.25</v>
+        <v>23.85</v>
       </c>
       <c r="F504" t="n">
-        <v>0.80732</v>
+        <v>1.22428</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SBS</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -12537,22 +12537,22 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>29.25</v>
+        <v>20.31</v>
       </c>
       <c r="D505" t="n">
-        <v>43.92</v>
+        <v>26.86</v>
       </c>
       <c r="E505" t="n">
-        <v>50.17</v>
+        <v>32.25</v>
       </c>
       <c r="F505" t="n">
-        <v>0.53349</v>
+        <v>0.80732</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>CHRW</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -12561,22 +12561,22 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>116.24</v>
+        <v>29.25</v>
       </c>
       <c r="D506" t="n">
-        <v>194.95</v>
+        <v>43.92</v>
       </c>
       <c r="E506" t="n">
-        <v>67.70999999999999</v>
+        <v>50.17</v>
       </c>
       <c r="F506" t="n">
-        <v>5.75139</v>
+        <v>0.53349</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>CHRW</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -12585,22 +12585,22 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>105.83</v>
+        <v>116.24</v>
       </c>
       <c r="D507" t="n">
-        <v>141.4</v>
+        <v>194.95</v>
       </c>
       <c r="E507" t="n">
-        <v>33.61</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="F507" t="n">
-        <v>3.90092</v>
+        <v>5.75139</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>ASML</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -12609,22 +12609,22 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>721.3099999999999</v>
+        <v>105.83</v>
       </c>
       <c r="D508" t="n">
-        <v>1423</v>
+        <v>141.4</v>
       </c>
       <c r="E508" t="n">
-        <v>97.28</v>
+        <v>33.61</v>
       </c>
       <c r="F508" t="n">
-        <v>54.23433</v>
+        <v>3.90092</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>ASML</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -12633,22 +12633,22 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>93.68000000000001</v>
+        <v>721.3099999999999</v>
       </c>
       <c r="D509" t="n">
-        <v>105.57</v>
+        <v>1423</v>
       </c>
       <c r="E509" t="n">
-        <v>12.69</v>
+        <v>97.28</v>
       </c>
       <c r="F509" t="n">
-        <v>0.09801</v>
+        <v>54.23433</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>LUV</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -12657,22 +12657,22 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>29.06</v>
+        <v>93.68000000000001</v>
       </c>
       <c r="D510" t="n">
-        <v>47.52</v>
+        <v>105.57</v>
       </c>
       <c r="E510" t="n">
-        <v>63.52</v>
+        <v>12.69</v>
       </c>
       <c r="F510" t="n">
-        <v>0.91667</v>
+        <v>0.09801</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>SITM</t>
+          <t>LUV</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -12681,22 +12681,22 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>203.06</v>
+        <v>29.06</v>
       </c>
       <c r="D511" t="n">
-        <v>363.11</v>
+        <v>47.52</v>
       </c>
       <c r="E511" t="n">
-        <v>78.81999999999999</v>
+        <v>63.52</v>
       </c>
       <c r="F511" t="n">
-        <v>2.69123</v>
+        <v>0.91667</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>XPO</t>
+          <t>FOXA</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -12705,22 +12705,22 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>119.05</v>
+        <v>54.5</v>
       </c>
       <c r="D512" t="n">
-        <v>148.11</v>
+        <v>72.78</v>
       </c>
       <c r="E512" t="n">
-        <v>24.41</v>
+        <v>33.54</v>
       </c>
       <c r="F512" t="n">
-        <v>0.77959</v>
+        <v>-0.27132</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>JLL</t>
+          <t>XPO</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -12729,22 +12729,22 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>275.79</v>
+        <v>119.05</v>
       </c>
       <c r="D513" t="n">
-        <v>357.91</v>
+        <v>148.11</v>
       </c>
       <c r="E513" t="n">
-        <v>29.78</v>
+        <v>24.41</v>
       </c>
       <c r="F513" t="n">
-        <v>3.1314</v>
+        <v>0.77959</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>LUMN</t>
+          <t>JLL</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -12753,22 +12753,22 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>3.74</v>
+        <v>275.79</v>
       </c>
       <c r="D514" t="n">
-        <v>8.82</v>
+        <v>357.91</v>
       </c>
       <c r="E514" t="n">
-        <v>135.83</v>
+        <v>29.78</v>
       </c>
       <c r="F514" t="n">
-        <v>0.24779</v>
+        <v>3.1314</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>MTSI</t>
+          <t>LUMN</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -12777,22 +12777,22 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>118.35</v>
+        <v>3.74</v>
       </c>
       <c r="D515" t="n">
-        <v>219.06</v>
+        <v>8.82</v>
       </c>
       <c r="E515" t="n">
-        <v>85.09999999999999</v>
+        <v>135.83</v>
       </c>
       <c r="F515" t="n">
-        <v>6.91275</v>
+        <v>0.24779</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>AMG</t>
+          <t>MTSI</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -12801,22 +12801,22 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>214.02</v>
+        <v>118.35</v>
       </c>
       <c r="D516" t="n">
-        <v>313.09</v>
+        <v>219.06</v>
       </c>
       <c r="E516" t="n">
-        <v>46.29</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="F516" t="n">
-        <v>0.73184</v>
+        <v>6.91275</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>AMG</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -12825,22 +12825,22 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>198.64</v>
+        <v>214.02</v>
       </c>
       <c r="D517" t="n">
-        <v>223.01</v>
+        <v>313.09</v>
       </c>
       <c r="E517" t="n">
-        <v>12.27</v>
+        <v>46.29</v>
       </c>
       <c r="F517" t="n">
-        <v>0.10224</v>
+        <v>0.73184</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>NXT</t>
+          <t>ABBV</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -12849,22 +12849,22 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>53.8</v>
+        <v>198.64</v>
       </c>
       <c r="D518" t="n">
-        <v>117.09</v>
+        <v>223.01</v>
       </c>
       <c r="E518" t="n">
-        <v>117.64</v>
+        <v>12.27</v>
       </c>
       <c r="F518" t="n">
-        <v>6.39436</v>
+        <v>0.10224</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>NXT</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -12873,22 +12873,22 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>143.88</v>
+        <v>53.8</v>
       </c>
       <c r="D519" t="n">
-        <v>182.8</v>
+        <v>117.09</v>
       </c>
       <c r="E519" t="n">
-        <v>27.05</v>
+        <v>117.64</v>
       </c>
       <c r="F519" t="n">
-        <v>0.04076</v>
+        <v>6.39436</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -12897,22 +12897,22 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>54.5</v>
+        <v>143.88</v>
       </c>
       <c r="D520" t="n">
-        <v>72.78</v>
+        <v>182.8</v>
       </c>
       <c r="E520" t="n">
-        <v>33.54</v>
+        <v>27.05</v>
       </c>
       <c r="F520" t="n">
-        <v>-0.27132</v>
+        <v>0.04076</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>BIIB</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -12921,22 +12921,22 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>89.97</v>
+        <v>128</v>
       </c>
       <c r="D521" t="n">
-        <v>136.14</v>
+        <v>179.89</v>
       </c>
       <c r="E521" t="n">
-        <v>51.32</v>
+        <v>40.54</v>
       </c>
       <c r="F521" t="n">
-        <v>3.14373</v>
+        <v>0.7155899999999999</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>GAP</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -12945,22 +12945,22 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>19.7</v>
+        <v>89.97</v>
       </c>
       <c r="D522" t="n">
-        <v>27.98</v>
+        <v>136.14</v>
       </c>
       <c r="E522" t="n">
-        <v>42.03</v>
+        <v>51.32</v>
       </c>
       <c r="F522" t="n">
-        <v>0.18985</v>
+        <v>3.14373</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>WDC</t>
+          <t>GAP</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -12969,22 +12969,22 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>74.64</v>
+        <v>19.7</v>
       </c>
       <c r="D523" t="n">
-        <v>250.23</v>
+        <v>27.98</v>
       </c>
       <c r="E523" t="n">
-        <v>235.25</v>
+        <v>42.03</v>
       </c>
       <c r="F523" t="n">
-        <v>17.14421</v>
+        <v>0.18985</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>ADI</t>
+          <t>MOG-B</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -12993,22 +12993,22 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>224.07</v>
+        <v>195</v>
       </c>
       <c r="D524" t="n">
-        <v>310.88</v>
+        <v>295</v>
       </c>
       <c r="E524" t="n">
-        <v>38.74</v>
+        <v>51.28</v>
       </c>
       <c r="F524" t="n">
-        <v>6.2276</v>
+        <v>6.32968</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>CFLT</t>
+          <t>MPWR</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -13017,16 +13017,16 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>15.91</v>
+        <v>797.51</v>
       </c>
       <c r="D525" t="n">
-        <v>30.54</v>
+        <v>1124.15</v>
       </c>
       <c r="E525" t="n">
-        <v>91.95</v>
+        <v>40.96</v>
       </c>
       <c r="F525" t="n">
-        <v>0.14557</v>
+        <v>44.78708</v>
       </c>
     </row>
     <row r="526">
@@ -13248,7 +13248,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>MPWR</t>
+          <t>HST</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -13257,22 +13257,22 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>797.51</v>
+        <v>15.31</v>
       </c>
       <c r="D535" t="n">
-        <v>1124.15</v>
+        <v>18.53</v>
       </c>
       <c r="E535" t="n">
-        <v>40.96</v>
+        <v>21.03</v>
       </c>
       <c r="F535" t="n">
-        <v>44.78708</v>
+        <v>0.04731</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>HST</t>
+          <t>TEVA</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -13281,16 +13281,16 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>15.31</v>
+        <v>16.42</v>
       </c>
       <c r="D536" t="n">
-        <v>18.53</v>
+        <v>34.08</v>
       </c>
       <c r="E536" t="n">
-        <v>21.03</v>
+        <v>107.55</v>
       </c>
       <c r="F536" t="n">
-        <v>0.04731</v>
+        <v>0.57434</v>
       </c>
     </row>
     <row r="537">
@@ -13512,7 +13512,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>TEVA</t>
+          <t>CFLT</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -13521,22 +13521,22 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>16.42</v>
+        <v>15.91</v>
       </c>
       <c r="D546" t="n">
-        <v>34.08</v>
+        <v>30.54</v>
       </c>
       <c r="E546" t="n">
-        <v>107.55</v>
+        <v>91.95</v>
       </c>
       <c r="F546" t="n">
-        <v>0.57434</v>
+        <v>0.14557</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>CMC</t>
+          <t>WDC</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -13545,22 +13545,22 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>53.02</v>
+        <v>74.64</v>
       </c>
       <c r="D547" t="n">
-        <v>76.87</v>
+        <v>250.23</v>
       </c>
       <c r="E547" t="n">
-        <v>44.98</v>
+        <v>235.25</v>
       </c>
       <c r="F547" t="n">
-        <v>0.90522</v>
+        <v>17.14421</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>ADI</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -13569,22 +13569,22 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>104.68</v>
+        <v>224.07</v>
       </c>
       <c r="D548" t="n">
-        <v>241.05</v>
+        <v>310.88</v>
       </c>
       <c r="E548" t="n">
-        <v>130.27</v>
+        <v>38.74</v>
       </c>
       <c r="F548" t="n">
-        <v>8.463369999999999</v>
+        <v>6.2276</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>USB</t>
+          <t>HCA</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -13593,16 +13593,16 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>44.56</v>
+        <v>382.91</v>
       </c>
       <c r="D549" t="n">
-        <v>56.11</v>
+        <v>488.27</v>
       </c>
       <c r="E549" t="n">
-        <v>25.92</v>
+        <v>27.52</v>
       </c>
       <c r="F549" t="n">
-        <v>0.50788</v>
+        <v>5.97061</v>
       </c>
     </row>
     <row r="550">
@@ -13824,7 +13824,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>HCA</t>
+          <t>KRMN</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -13833,22 +13833,22 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>382.91</v>
+        <v>46.7</v>
       </c>
       <c r="D559" t="n">
-        <v>488.27</v>
+        <v>103.8</v>
       </c>
       <c r="E559" t="n">
-        <v>27.52</v>
+        <v>122.27</v>
       </c>
       <c r="F559" t="n">
-        <v>5.97061</v>
+        <v>3.94373</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>KRMN</t>
+          <t>TER</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -13857,16 +13857,16 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>46.7</v>
+        <v>104.68</v>
       </c>
       <c r="D560" t="n">
-        <v>103.8</v>
+        <v>241.05</v>
       </c>
       <c r="E560" t="n">
-        <v>122.27</v>
+        <v>130.27</v>
       </c>
       <c r="F560" t="n">
-        <v>3.94373</v>
+        <v>8.463369999999999</v>
       </c>
     </row>
     <row r="561">
@@ -14064,49 +14064,49 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>BIO-B</t>
+          <t>USB</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="C569" t="n">
-        <v>247.05</v>
+        <v>44.56</v>
       </c>
       <c r="D569" t="n">
-        <v>312.75</v>
+        <v>56.11</v>
       </c>
       <c r="E569" t="n">
-        <v>26.59</v>
+        <v>25.92</v>
       </c>
       <c r="F569" t="n">
-        <v>0.4732</v>
+        <v>0.50788</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>MOG-B</t>
+          <t>CMC</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="C570" t="n">
-        <v>194.99</v>
+        <v>53.02</v>
       </c>
       <c r="D570" t="n">
-        <v>295</v>
+        <v>76.87</v>
       </c>
       <c r="E570" t="n">
-        <v>51.29</v>
+        <v>44.98</v>
       </c>
       <c r="F570" t="n">
-        <v>6.99596</v>
+        <v>0.90522</v>
       </c>
     </row>
   </sheetData>

--- a/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
+++ b/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
@@ -1530,7 +1530,7 @@
         <v>14.93</v>
       </c>
       <c r="F46" t="n">
-        <v>5.61632</v>
+        <v>6.39191</v>
       </c>
     </row>
     <row r="47">
@@ -7560,7 +7560,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>FITB</t>
+          <t>TFC</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -7569,22 +7569,22 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>40.36</v>
+        <v>41.09</v>
       </c>
       <c r="D298" t="n">
-        <v>51.95</v>
+        <v>52.66</v>
       </c>
       <c r="E298" t="n">
-        <v>28.72</v>
+        <v>28.16</v>
       </c>
       <c r="F298" t="n">
-        <v>0.34416</v>
+        <v>0.50627</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>MSCI</t>
+          <t>FITB</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -7593,22 +7593,22 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>533.34</v>
+        <v>40.36</v>
       </c>
       <c r="D299" t="n">
-        <v>624.75</v>
+        <v>51.95</v>
       </c>
       <c r="E299" t="n">
-        <v>17.14</v>
+        <v>28.72</v>
       </c>
       <c r="F299" t="n">
-        <v>9.92854</v>
+        <v>0.34416</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>PBR-A</t>
+          <t>TRV</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -7617,22 +7617,22 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>10.83</v>
+        <v>261.57</v>
       </c>
       <c r="D300" t="n">
-        <v>14.14</v>
+        <v>285.63</v>
       </c>
       <c r="E300" t="n">
-        <v>30.56</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F300" t="n">
-        <v>0.70044</v>
+        <v>1.50507</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>TRV</t>
+          <t>PBR-A</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -7641,22 +7641,22 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>261.57</v>
+        <v>10.83</v>
       </c>
       <c r="D301" t="n">
-        <v>285.63</v>
+        <v>14.14</v>
       </c>
       <c r="E301" t="n">
-        <v>9.199999999999999</v>
+        <v>30.56</v>
       </c>
       <c r="F301" t="n">
-        <v>1.50507</v>
+        <v>0.70044</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>TFC</t>
+          <t>PNC</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -7665,22 +7665,22 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>41.09</v>
+        <v>178.37</v>
       </c>
       <c r="D302" t="n">
-        <v>52.66</v>
+        <v>227.63</v>
       </c>
       <c r="E302" t="n">
-        <v>28.16</v>
+        <v>27.62</v>
       </c>
       <c r="F302" t="n">
-        <v>0.50627</v>
+        <v>2.38955</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>PNC</t>
+          <t>TRGP</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -7689,22 +7689,22 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>178.37</v>
+        <v>146.3</v>
       </c>
       <c r="D303" t="n">
-        <v>227.63</v>
+        <v>198.67</v>
       </c>
       <c r="E303" t="n">
-        <v>27.62</v>
+        <v>35.8</v>
       </c>
       <c r="F303" t="n">
-        <v>2.38955</v>
+        <v>4.95282</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>TRGP</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -7713,22 +7713,22 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>146.3</v>
+        <v>259.04</v>
       </c>
       <c r="D304" t="n">
-        <v>198.67</v>
+        <v>319.29</v>
       </c>
       <c r="E304" t="n">
-        <v>35.8</v>
+        <v>23.26</v>
       </c>
       <c r="F304" t="n">
-        <v>4.95282</v>
+        <v>-0.16257</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>MSCI</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -7737,16 +7737,16 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>259.04</v>
+        <v>533.34</v>
       </c>
       <c r="D305" t="n">
-        <v>319.29</v>
+        <v>624.75</v>
       </c>
       <c r="E305" t="n">
-        <v>23.26</v>
+        <v>17.14</v>
       </c>
       <c r="F305" t="n">
-        <v>-0.16257</v>
+        <v>9.92854</v>
       </c>
     </row>
     <row r="306">
@@ -7776,7 +7776,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>KOF</t>
+          <t>WF</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -7785,22 +7785,22 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>80.72</v>
+        <v>52.67</v>
       </c>
       <c r="D307" t="n">
-        <v>105.22</v>
+        <v>62.89</v>
       </c>
       <c r="E307" t="n">
-        <v>30.35</v>
+        <v>19.4</v>
       </c>
       <c r="F307" t="n">
-        <v>1.52757</v>
+        <v>1.14798</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>WF</t>
+          <t>KOF</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -7809,16 +7809,16 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>52.67</v>
+        <v>80.72</v>
       </c>
       <c r="D308" t="n">
-        <v>62.89</v>
+        <v>105.22</v>
       </c>
       <c r="E308" t="n">
-        <v>19.4</v>
+        <v>30.35</v>
       </c>
       <c r="F308" t="n">
-        <v>1.14798</v>
+        <v>1.52757</v>
       </c>
     </row>
     <row r="309">
@@ -7848,7 +7848,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>AVY</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -7857,22 +7857,22 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>157.49</v>
+        <v>439.11</v>
       </c>
       <c r="D310" t="n">
-        <v>187.09</v>
+        <v>532.25</v>
       </c>
       <c r="E310" t="n">
-        <v>18.79</v>
+        <v>21.21</v>
       </c>
       <c r="F310" t="n">
-        <v>0.17198</v>
+        <v>8.859870000000001</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>CCK</t>
+          <t>STE</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -7881,22 +7881,22 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>90.20999999999999</v>
+        <v>235.48</v>
       </c>
       <c r="D311" t="n">
-        <v>107.78</v>
+        <v>264.24</v>
       </c>
       <c r="E311" t="n">
-        <v>19.48</v>
+        <v>12.21</v>
       </c>
       <c r="F311" t="n">
-        <v>0.71684</v>
+        <v>0.67541</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>STE</t>
+          <t>AVY</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -7905,22 +7905,22 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>235.48</v>
+        <v>157.49</v>
       </c>
       <c r="D312" t="n">
-        <v>264.24</v>
+        <v>187.09</v>
       </c>
       <c r="E312" t="n">
-        <v>12.21</v>
+        <v>18.79</v>
       </c>
       <c r="F312" t="n">
-        <v>0.67541</v>
+        <v>0.17198</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>JBS</t>
+          <t>CCK</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -7929,22 +7929,22 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>12.53</v>
+        <v>90.20999999999999</v>
       </c>
       <c r="D313" t="n">
-        <v>15.72</v>
+        <v>107.78</v>
       </c>
       <c r="E313" t="n">
-        <v>25.46</v>
+        <v>19.48</v>
       </c>
       <c r="F313" t="n">
-        <v>0.27011</v>
+        <v>0.71684</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JBS</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -7953,22 +7953,22 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>439.11</v>
+        <v>12.53</v>
       </c>
       <c r="D314" t="n">
-        <v>532.25</v>
+        <v>15.72</v>
       </c>
       <c r="E314" t="n">
-        <v>21.21</v>
+        <v>25.46</v>
       </c>
       <c r="F314" t="n">
-        <v>8.859870000000001</v>
+        <v>0.27011</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>UGI</t>
+          <t>DOV</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -7977,22 +7977,22 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>31.75</v>
+        <v>161.16</v>
       </c>
       <c r="D315" t="n">
-        <v>40.16</v>
+        <v>207.32</v>
       </c>
       <c r="E315" t="n">
-        <v>26.49</v>
+        <v>28.64</v>
       </c>
       <c r="F315" t="n">
-        <v>0.73968</v>
+        <v>0.2717</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>DOV</t>
+          <t>SPXC</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -8001,16 +8001,16 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>161.16</v>
+        <v>180.71</v>
       </c>
       <c r="D316" t="n">
-        <v>207.32</v>
+        <v>212.73</v>
       </c>
       <c r="E316" t="n">
-        <v>28.64</v>
+        <v>17.72</v>
       </c>
       <c r="F316" t="n">
-        <v>0.2717</v>
+        <v>-0.4617</v>
       </c>
     </row>
     <row r="317">
@@ -8040,7 +8040,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>SPXC</t>
+          <t>UGI</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -8049,22 +8049,22 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>180.71</v>
+        <v>31.75</v>
       </c>
       <c r="D318" t="n">
-        <v>212.73</v>
+        <v>40.16</v>
       </c>
       <c r="E318" t="n">
-        <v>17.72</v>
+        <v>26.49</v>
       </c>
       <c r="F318" t="n">
-        <v>-0.4617</v>
+        <v>0.73968</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>PKX</t>
+          <t>PCAR</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -8073,22 +8073,22 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>45.13</v>
+        <v>93</v>
       </c>
       <c r="D319" t="n">
-        <v>60.17</v>
+        <v>124.61</v>
       </c>
       <c r="E319" t="n">
-        <v>33.33</v>
+        <v>33.99</v>
       </c>
       <c r="F319" t="n">
-        <v>1.04626</v>
+        <v>1.67664</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ABEV</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -8097,22 +8097,22 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>2.11</v>
+        <v>6.09</v>
       </c>
       <c r="D320" t="n">
-        <v>2.83</v>
+        <v>8.84</v>
       </c>
       <c r="E320" t="n">
-        <v>34.12</v>
+        <v>45.16</v>
       </c>
       <c r="F320" t="n">
-        <v>0.06083</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>MPLX</t>
+          <t>PRU</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -8121,22 +8121,22 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>47.8</v>
+        <v>99.13</v>
       </c>
       <c r="D321" t="n">
-        <v>55.32</v>
+        <v>111.72</v>
       </c>
       <c r="E321" t="n">
-        <v>15.73</v>
+        <v>12.7</v>
       </c>
       <c r="F321" t="n">
-        <v>0.33876</v>
+        <v>-0.63636</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>SMFG</t>
+          <t>NYT</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -8145,22 +8145,22 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>15.2</v>
+        <v>54.66</v>
       </c>
       <c r="D322" t="n">
-        <v>21.1</v>
+        <v>73.7</v>
       </c>
       <c r="E322" t="n">
-        <v>38.82</v>
+        <v>34.83</v>
       </c>
       <c r="F322" t="n">
-        <v>0.21254</v>
+        <v>0.76608</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>WMS</t>
+          <t>TTE</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -8169,22 +8169,22 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>134.05</v>
+        <v>57.39</v>
       </c>
       <c r="D323" t="n">
-        <v>156.3</v>
+        <v>71.88</v>
       </c>
       <c r="E323" t="n">
-        <v>16.6</v>
+        <v>25.25</v>
       </c>
       <c r="F323" t="n">
-        <v>-0.03938</v>
+        <v>1.67752</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>NYT</t>
+          <t>WMS</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -8193,22 +8193,22 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>54.66</v>
+        <v>134.05</v>
       </c>
       <c r="D324" t="n">
-        <v>73.7</v>
+        <v>156.3</v>
       </c>
       <c r="E324" t="n">
-        <v>34.83</v>
+        <v>16.6</v>
       </c>
       <c r="F324" t="n">
-        <v>0.76608</v>
+        <v>-0.03938</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>MUFG</t>
+          <t>ABEV</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -8217,22 +8217,22 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>14.62</v>
+        <v>2.11</v>
       </c>
       <c r="D325" t="n">
-        <v>18.24</v>
+        <v>2.83</v>
       </c>
       <c r="E325" t="n">
-        <v>24.76</v>
+        <v>34.12</v>
       </c>
       <c r="F325" t="n">
-        <v>0.22231</v>
+        <v>0.06083</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>PCAR</t>
+          <t>GAP</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -8241,16 +8241,16 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>93</v>
+        <v>19.7</v>
       </c>
       <c r="D326" t="n">
-        <v>124.61</v>
+        <v>28.67</v>
       </c>
       <c r="E326" t="n">
-        <v>33.99</v>
+        <v>45.53</v>
       </c>
       <c r="F326" t="n">
-        <v>1.67664</v>
+        <v>0.34987</v>
       </c>
     </row>
     <row r="327">
@@ -8280,7 +8280,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>LTM</t>
+          <t>TM</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -8289,22 +8289,22 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>41.58</v>
+        <v>185.22</v>
       </c>
       <c r="D328" t="n">
-        <v>68.45999999999999</v>
+        <v>231.58</v>
       </c>
       <c r="E328" t="n">
-        <v>64.65000000000001</v>
+        <v>25.03</v>
       </c>
       <c r="F328" t="n">
-        <v>2.39572</v>
+        <v>1.40757</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>TTE</t>
+          <t>USB</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -8313,22 +8313,22 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>57.39</v>
+        <v>45.28</v>
       </c>
       <c r="D329" t="n">
-        <v>71.88</v>
+        <v>57.36</v>
       </c>
       <c r="E329" t="n">
-        <v>25.25</v>
+        <v>26.68</v>
       </c>
       <c r="F329" t="n">
-        <v>1.67752</v>
+        <v>0.53856</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>EXPD</t>
+          <t>SMFG</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -8337,22 +8337,22 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>113.13</v>
+        <v>15.2</v>
       </c>
       <c r="D330" t="n">
-        <v>163.55</v>
+        <v>21.1</v>
       </c>
       <c r="E330" t="n">
-        <v>44.57</v>
+        <v>38.82</v>
       </c>
       <c r="F330" t="n">
-        <v>1.20342</v>
+        <v>0.21254</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ROK</t>
+          <t>MUFG</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -8361,22 +8361,22 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>333.75</v>
+        <v>14.62</v>
       </c>
       <c r="D331" t="n">
-        <v>429.15</v>
+        <v>18.24</v>
       </c>
       <c r="E331" t="n">
-        <v>28.58</v>
+        <v>24.76</v>
       </c>
       <c r="F331" t="n">
-        <v>3.74091</v>
+        <v>0.22231</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>FLS</t>
+          <t>KEP</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -8385,22 +8385,22 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>49.09</v>
+        <v>12.51</v>
       </c>
       <c r="D332" t="n">
-        <v>79.2</v>
+        <v>20</v>
       </c>
       <c r="E332" t="n">
-        <v>61.34</v>
+        <v>59.87</v>
       </c>
       <c r="F332" t="n">
-        <v>1.0639</v>
+        <v>0.39716</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>PAA</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -8409,22 +8409,22 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>716.66</v>
+        <v>15.85</v>
       </c>
       <c r="D333" t="n">
-        <v>952</v>
+        <v>19.2</v>
       </c>
       <c r="E333" t="n">
-        <v>32.84</v>
+        <v>21.14</v>
       </c>
       <c r="F333" t="n">
-        <v>6.15537</v>
+        <v>0.21939</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>JLL</t>
+          <t>WDS</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -8433,22 +8433,22 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>283.23</v>
+        <v>14.28</v>
       </c>
       <c r="D334" t="n">
-        <v>353.93</v>
+        <v>17.23</v>
       </c>
       <c r="E334" t="n">
-        <v>24.96</v>
+        <v>20.66</v>
       </c>
       <c r="F334" t="n">
-        <v>2.63317</v>
+        <v>0.42722</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>MFG</t>
+          <t>PKX</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -8457,22 +8457,22 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>6.09</v>
+        <v>45.13</v>
       </c>
       <c r="D335" t="n">
-        <v>8.84</v>
+        <v>60.17</v>
       </c>
       <c r="E335" t="n">
-        <v>45.16</v>
+        <v>33.33</v>
       </c>
       <c r="F335" t="n">
-        <v>0.182</v>
+        <v>1.04626</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>DOW</t>
+          <t>KB</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -8481,22 +8481,22 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>20.65</v>
+        <v>77.5</v>
       </c>
       <c r="D336" t="n">
-        <v>28.88</v>
+        <v>94.45999999999999</v>
       </c>
       <c r="E336" t="n">
-        <v>39.85</v>
+        <v>21.88</v>
       </c>
       <c r="F336" t="n">
-        <v>0.42285</v>
+        <v>1.57538</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>PRU</t>
+          <t>HAS</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -8505,22 +8505,22 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>99.13</v>
+        <v>70.95</v>
       </c>
       <c r="D337" t="n">
-        <v>111.72</v>
+        <v>93.84</v>
       </c>
       <c r="E337" t="n">
-        <v>12.7</v>
+        <v>32.26</v>
       </c>
       <c r="F337" t="n">
-        <v>-0.63636</v>
+        <v>1.48951</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>USB</t>
+          <t>EXPD</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -8529,22 +8529,22 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>45.28</v>
+        <v>113.13</v>
       </c>
       <c r="D338" t="n">
-        <v>57.36</v>
+        <v>163.55</v>
       </c>
       <c r="E338" t="n">
-        <v>26.68</v>
+        <v>44.57</v>
       </c>
       <c r="F338" t="n">
-        <v>0.53856</v>
+        <v>1.20342</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>GAP</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -8553,22 +8553,22 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>19.7</v>
+        <v>31.72</v>
       </c>
       <c r="D339" t="n">
-        <v>28.67</v>
+        <v>48.05</v>
       </c>
       <c r="E339" t="n">
-        <v>45.53</v>
+        <v>51.48</v>
       </c>
       <c r="F339" t="n">
-        <v>0.34987</v>
+        <v>0.9026999999999999</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>AME</t>
+          <t>LTM</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>179.28</v>
+        <v>41.58</v>
       </c>
       <c r="D340" t="n">
-        <v>227.72</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="E340" t="n">
-        <v>27.02</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="F340" t="n">
-        <v>3.7574</v>
+        <v>2.39572</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>HAS</t>
+          <t>AME</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -8601,22 +8601,22 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>70.95</v>
+        <v>179.28</v>
       </c>
       <c r="D341" t="n">
-        <v>93.84</v>
+        <v>227.72</v>
       </c>
       <c r="E341" t="n">
-        <v>32.26</v>
+        <v>27.02</v>
       </c>
       <c r="F341" t="n">
-        <v>1.48951</v>
+        <v>3.7574</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>PAA</t>
+          <t>DOW</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -8625,22 +8625,22 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>15.85</v>
+        <v>20.65</v>
       </c>
       <c r="D342" t="n">
-        <v>19.2</v>
+        <v>28.88</v>
       </c>
       <c r="E342" t="n">
-        <v>21.14</v>
+        <v>39.85</v>
       </c>
       <c r="F342" t="n">
-        <v>0.21939</v>
+        <v>0.42285</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>WDS</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -8649,22 +8649,22 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>14.28</v>
+        <v>716.66</v>
       </c>
       <c r="D343" t="n">
-        <v>17.23</v>
+        <v>952</v>
       </c>
       <c r="E343" t="n">
-        <v>20.66</v>
+        <v>32.84</v>
       </c>
       <c r="F343" t="n">
-        <v>0.42722</v>
+        <v>6.15537</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>KB</t>
+          <t>FLS</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -8673,22 +8673,22 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>77.5</v>
+        <v>49.09</v>
       </c>
       <c r="D344" t="n">
-        <v>94.45999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="E344" t="n">
-        <v>21.88</v>
+        <v>61.34</v>
       </c>
       <c r="F344" t="n">
-        <v>1.57538</v>
+        <v>1.0639</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>KEP</t>
+          <t>MPLX</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -8697,22 +8697,22 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>12.51</v>
+        <v>47.8</v>
       </c>
       <c r="D345" t="n">
-        <v>20</v>
+        <v>55.32</v>
       </c>
       <c r="E345" t="n">
-        <v>59.87</v>
+        <v>15.73</v>
       </c>
       <c r="F345" t="n">
-        <v>0.39716</v>
+        <v>0.33876</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>ROK</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -8721,22 +8721,22 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>31.72</v>
+        <v>333.75</v>
       </c>
       <c r="D346" t="n">
-        <v>48.05</v>
+        <v>429.15</v>
       </c>
       <c r="E346" t="n">
-        <v>51.48</v>
+        <v>28.58</v>
       </c>
       <c r="F346" t="n">
-        <v>0.9026999999999999</v>
+        <v>3.74091</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>TM</t>
+          <t>JLL</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -8745,22 +8745,22 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>185.22</v>
+        <v>283.23</v>
       </c>
       <c r="D347" t="n">
-        <v>231.58</v>
+        <v>353.93</v>
       </c>
       <c r="E347" t="n">
-        <v>25.03</v>
+        <v>24.96</v>
       </c>
       <c r="F347" t="n">
-        <v>1.40757</v>
+        <v>2.63317</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>MCD</t>
+          <t>AMCR</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -8769,22 +8769,22 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>293.81</v>
+        <v>39.1</v>
       </c>
       <c r="D348" t="n">
-        <v>318.53</v>
+        <v>43.75</v>
       </c>
       <c r="E348" t="n">
-        <v>8.41</v>
+        <v>11.89</v>
       </c>
       <c r="F348" t="n">
-        <v>2.33255</v>
+        <v>0.34169</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>AMCR</t>
+          <t>MCD</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -8793,16 +8793,16 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>39.1</v>
+        <v>293.81</v>
       </c>
       <c r="D349" t="n">
-        <v>43.75</v>
+        <v>318.53</v>
       </c>
       <c r="E349" t="n">
-        <v>11.89</v>
+        <v>8.41</v>
       </c>
       <c r="F349" t="n">
-        <v>0.34169</v>
+        <v>2.33255</v>
       </c>
     </row>
     <row r="350">
@@ -9000,7 +9000,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>IEX</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -9009,22 +9009,22 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>159.28</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D358" t="n">
-        <v>198.22</v>
+        <v>113.37</v>
       </c>
       <c r="E358" t="n">
-        <v>24.45</v>
+        <v>46.1</v>
       </c>
       <c r="F358" t="n">
-        <v>2.84244</v>
+        <v>0.71731</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>AMGN</t>
+          <t>AZN</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -9033,22 +9033,22 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>271.18</v>
+        <v>73.53</v>
       </c>
       <c r="D359" t="n">
-        <v>344.68</v>
+        <v>188.41</v>
       </c>
       <c r="E359" t="n">
-        <v>27.1</v>
+        <v>156.24</v>
       </c>
       <c r="F359" t="n">
-        <v>2.22266</v>
+        <v>9.02647</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>IHG</t>
+          <t>AMGN</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -9057,22 +9057,22 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>117.79</v>
+        <v>271.18</v>
       </c>
       <c r="D360" t="n">
-        <v>142.17</v>
+        <v>344.68</v>
       </c>
       <c r="E360" t="n">
-        <v>20.7</v>
+        <v>27.1</v>
       </c>
       <c r="F360" t="n">
-        <v>0.12007</v>
+        <v>2.22266</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>SNY</t>
+          <t>HLN</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -9081,22 +9081,22 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>45.07</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="D361" t="n">
-        <v>47.27</v>
+        <v>10.56</v>
       </c>
       <c r="E361" t="n">
-        <v>4.88</v>
+        <v>21.1</v>
       </c>
       <c r="F361" t="n">
-        <v>-0.27988</v>
+        <v>0.10475</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>IEX</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -9105,22 +9105,22 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>23.6</v>
+        <v>159.28</v>
       </c>
       <c r="D362" t="n">
-        <v>26.66</v>
+        <v>198.22</v>
       </c>
       <c r="E362" t="n">
-        <v>12.97</v>
+        <v>24.45</v>
       </c>
       <c r="F362" t="n">
-        <v>0.21795</v>
+        <v>2.84244</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>RPRX</t>
+          <t>IHG</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -9129,22 +9129,22 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>34.9</v>
+        <v>117.79</v>
       </c>
       <c r="D363" t="n">
-        <v>42.36</v>
+        <v>142.17</v>
       </c>
       <c r="E363" t="n">
-        <v>21.38</v>
+        <v>20.7</v>
       </c>
       <c r="F363" t="n">
-        <v>0.49681</v>
+        <v>0.12007</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>NWG</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -9153,22 +9153,22 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>77.59999999999999</v>
+        <v>13.62</v>
       </c>
       <c r="D364" t="n">
-        <v>113.37</v>
+        <v>18.82</v>
       </c>
       <c r="E364" t="n">
-        <v>46.1</v>
+        <v>38.18</v>
       </c>
       <c r="F364" t="n">
-        <v>0.71731</v>
+        <v>0.2985</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>UPS</t>
+          <t>VTRS</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -9177,22 +9177,22 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>82.58</v>
+        <v>9.49</v>
       </c>
       <c r="D365" t="n">
-        <v>110.27</v>
+        <v>13.68</v>
       </c>
       <c r="E365" t="n">
-        <v>33.53</v>
+        <v>44.15</v>
       </c>
       <c r="F365" t="n">
-        <v>0.35616</v>
+        <v>0.15924</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>VTRS</t>
+          <t>FCX</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -9201,22 +9201,22 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>9.49</v>
+        <v>35.34</v>
       </c>
       <c r="D366" t="n">
-        <v>13.68</v>
+        <v>60.76</v>
       </c>
       <c r="E366" t="n">
-        <v>44.15</v>
+        <v>71.93000000000001</v>
       </c>
       <c r="F366" t="n">
-        <v>0.15924</v>
+        <v>1.6053</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>HLN</t>
+          <t>RPRX</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -9225,16 +9225,16 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>8.720000000000001</v>
+        <v>34.9</v>
       </c>
       <c r="D367" t="n">
-        <v>10.56</v>
+        <v>42.36</v>
       </c>
       <c r="E367" t="n">
-        <v>21.1</v>
+        <v>21.38</v>
       </c>
       <c r="F367" t="n">
-        <v>0.10475</v>
+        <v>0.49681</v>
       </c>
     </row>
     <row r="368">
@@ -9264,7 +9264,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>NWG</t>
+          <t>UPS</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -9273,22 +9273,22 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>13.62</v>
+        <v>82.58</v>
       </c>
       <c r="D369" t="n">
-        <v>18.82</v>
+        <v>110.27</v>
       </c>
       <c r="E369" t="n">
-        <v>38.18</v>
+        <v>33.53</v>
       </c>
       <c r="F369" t="n">
-        <v>0.2985</v>
+        <v>0.35616</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>AZN</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -9297,22 +9297,22 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>73.53</v>
+        <v>23.6</v>
       </c>
       <c r="D370" t="n">
-        <v>188.41</v>
+        <v>26.66</v>
       </c>
       <c r="E370" t="n">
-        <v>156.24</v>
+        <v>12.97</v>
       </c>
       <c r="F370" t="n">
-        <v>9.02647</v>
+        <v>0.21795</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>FCX</t>
+          <t>SNY</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -9321,16 +9321,16 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>35.34</v>
+        <v>45.07</v>
       </c>
       <c r="D371" t="n">
-        <v>60.76</v>
+        <v>47.27</v>
       </c>
       <c r="E371" t="n">
-        <v>71.93000000000001</v>
+        <v>4.88</v>
       </c>
       <c r="F371" t="n">
-        <v>1.6053</v>
+        <v>-0.27988</v>
       </c>
     </row>
     <row r="372">
@@ -9408,7 +9408,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>RYAAY</t>
+          <t>ROST</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -9417,22 +9417,22 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>55.19</v>
+        <v>144.67</v>
       </c>
       <c r="D375" t="n">
-        <v>72.06999999999999</v>
+        <v>190.11</v>
       </c>
       <c r="E375" t="n">
-        <v>30.59</v>
+        <v>31.41</v>
       </c>
       <c r="F375" t="n">
-        <v>0.24076</v>
+        <v>0.15266</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>RYAAY</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -9441,22 +9441,22 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>77.14</v>
+        <v>55.19</v>
       </c>
       <c r="D376" t="n">
-        <v>113.98</v>
+        <v>72.06999999999999</v>
       </c>
       <c r="E376" t="n">
-        <v>47.76</v>
+        <v>30.59</v>
       </c>
       <c r="F376" t="n">
-        <v>3.15676</v>
+        <v>0.24076</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ROST</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -9465,22 +9465,22 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>144.67</v>
+        <v>77.14</v>
       </c>
       <c r="D377" t="n">
-        <v>190.11</v>
+        <v>113.98</v>
       </c>
       <c r="E377" t="n">
-        <v>31.41</v>
+        <v>47.76</v>
       </c>
       <c r="F377" t="n">
-        <v>0.15266</v>
+        <v>3.15676</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>BHP</t>
+          <t>VTR</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -9489,22 +9489,22 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>52.14</v>
+        <v>67.13</v>
       </c>
       <c r="D378" t="n">
-        <v>69.39</v>
+        <v>77.41</v>
       </c>
       <c r="E378" t="n">
-        <v>33.08</v>
+        <v>15.31</v>
       </c>
       <c r="F378" t="n">
-        <v>1.84375</v>
+        <v>-0.02372</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>VTR</t>
+          <t>EQT</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -9513,22 +9513,22 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>67.13</v>
+        <v>49.19</v>
       </c>
       <c r="D379" t="n">
-        <v>77.41</v>
+        <v>54.75</v>
       </c>
       <c r="E379" t="n">
-        <v>15.31</v>
+        <v>11.3</v>
       </c>
       <c r="F379" t="n">
-        <v>-0.02372</v>
+        <v>0.81245</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>EQT</t>
+          <t>BHP</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -9537,16 +9537,16 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>49.19</v>
+        <v>52.14</v>
       </c>
       <c r="D380" t="n">
-        <v>54.75</v>
+        <v>69.39</v>
       </c>
       <c r="E380" t="n">
-        <v>11.3</v>
+        <v>33.08</v>
       </c>
       <c r="F380" t="n">
-        <v>0.81245</v>
+        <v>1.84375</v>
       </c>
     </row>
     <row r="381">
@@ -9624,7 +9624,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>AES</t>
+          <t>WAB</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -9633,22 +9633,22 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>12.51</v>
+        <v>185.65</v>
       </c>
       <c r="D384" t="n">
-        <v>14.73</v>
+        <v>233.69</v>
       </c>
       <c r="E384" t="n">
-        <v>17.75</v>
+        <v>25.88</v>
       </c>
       <c r="F384" t="n">
-        <v>0.1876</v>
+        <v>1.85008</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>RNA</t>
+          <t>AES</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -9657,22 +9657,22 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>40.06</v>
+        <v>12.51</v>
       </c>
       <c r="D385" t="n">
-        <v>72.73999999999999</v>
+        <v>14.73</v>
       </c>
       <c r="E385" t="n">
-        <v>81.58</v>
+        <v>17.75</v>
       </c>
       <c r="F385" t="n">
-        <v>0.07629</v>
+        <v>0.1876</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>WAB</t>
+          <t>RNA</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -9681,16 +9681,16 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>185.65</v>
+        <v>40.06</v>
       </c>
       <c r="D386" t="n">
-        <v>233.69</v>
+        <v>72.73999999999999</v>
       </c>
       <c r="E386" t="n">
-        <v>25.88</v>
+        <v>81.58</v>
       </c>
       <c r="F386" t="n">
-        <v>1.85008</v>
+        <v>0.07629</v>
       </c>
     </row>
     <row r="387">
@@ -9744,7 +9744,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t>STT</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -9753,22 +9753,22 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>39.37</v>
+        <v>110.49</v>
       </c>
       <c r="D389" t="n">
-        <v>44.03</v>
+        <v>132.58</v>
       </c>
       <c r="E389" t="n">
-        <v>11.84</v>
+        <v>19.99</v>
       </c>
       <c r="F389" t="n">
-        <v>0.43</v>
+        <v>0.54716</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>STT</t>
+          <t>NI</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -9777,22 +9777,22 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>110.49</v>
+        <v>39.37</v>
       </c>
       <c r="D390" t="n">
-        <v>132.58</v>
+        <v>44.03</v>
       </c>
       <c r="E390" t="n">
-        <v>19.99</v>
+        <v>11.84</v>
       </c>
       <c r="F390" t="n">
-        <v>0.54716</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>CME</t>
+          <t>FANG</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -9801,22 +9801,22 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>258.83</v>
+        <v>134.53</v>
       </c>
       <c r="D391" t="n">
-        <v>290.77</v>
+        <v>158.64</v>
       </c>
       <c r="E391" t="n">
-        <v>12.34</v>
+        <v>17.92</v>
       </c>
       <c r="F391" t="n">
-        <v>4.14314</v>
+        <v>3.26917</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>FANG</t>
+          <t>GH</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -9825,22 +9825,22 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>134.53</v>
+        <v>54.79</v>
       </c>
       <c r="D392" t="n">
-        <v>158.64</v>
+        <v>114.9</v>
       </c>
       <c r="E392" t="n">
-        <v>17.92</v>
+        <v>109.71</v>
       </c>
       <c r="F392" t="n">
-        <v>3.26917</v>
+        <v>0.69925</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>GH</t>
+          <t>CME</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -9849,22 +9849,22 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>54.79</v>
+        <v>258.83</v>
       </c>
       <c r="D393" t="n">
-        <v>114.9</v>
+        <v>290.77</v>
       </c>
       <c r="E393" t="n">
-        <v>109.71</v>
+        <v>12.34</v>
       </c>
       <c r="F393" t="n">
-        <v>0.69925</v>
+        <v>4.14314</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>FERG</t>
+          <t>UNP</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -9873,22 +9873,22 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>211.61</v>
+        <v>214.91</v>
       </c>
       <c r="D394" t="n">
-        <v>254.94</v>
+        <v>235.23</v>
       </c>
       <c r="E394" t="n">
-        <v>20.48</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="F394" t="n">
-        <v>3.61405</v>
+        <v>0.95971</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>UNP</t>
+          <t>FERG</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -9897,16 +9897,16 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>214.91</v>
+        <v>211.61</v>
       </c>
       <c r="D395" t="n">
-        <v>235.23</v>
+        <v>254.94</v>
       </c>
       <c r="E395" t="n">
-        <v>9.460000000000001</v>
+        <v>20.48</v>
       </c>
       <c r="F395" t="n">
-        <v>0.95971</v>
+        <v>3.61405</v>
       </c>
     </row>
     <row r="396">
@@ -9960,7 +9960,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>ASTS</t>
+          <t>WWD</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -9969,22 +9969,22 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>36.91</v>
+        <v>237.33</v>
       </c>
       <c r="D398" t="n">
-        <v>104.55</v>
+        <v>327.25</v>
       </c>
       <c r="E398" t="n">
-        <v>183.26</v>
+        <v>37.89</v>
       </c>
       <c r="F398" t="n">
-        <v>5.05812</v>
+        <v>-0.3576</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>WWD</t>
+          <t>ASTS</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -9993,16 +9993,16 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>237.33</v>
+        <v>36.91</v>
       </c>
       <c r="D399" t="n">
-        <v>327.25</v>
+        <v>104.55</v>
       </c>
       <c r="E399" t="n">
-        <v>37.89</v>
+        <v>183.26</v>
       </c>
       <c r="F399" t="n">
-        <v>-0.3576</v>
+        <v>5.05812</v>
       </c>
     </row>
     <row r="400">
@@ -10032,7 +10032,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>NEE</t>
+          <t>CNP</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -10041,22 +10041,22 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>69.77</v>
+        <v>37.32</v>
       </c>
       <c r="D401" t="n">
-        <v>86.33</v>
+        <v>39.38</v>
       </c>
       <c r="E401" t="n">
-        <v>23.74</v>
+        <v>5.52</v>
       </c>
       <c r="F401" t="n">
-        <v>1.45522</v>
+        <v>0.23719</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>CNP</t>
+          <t>EVRG</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -10065,22 +10065,22 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>37.32</v>
+        <v>70.77</v>
       </c>
       <c r="D402" t="n">
-        <v>39.38</v>
+        <v>75.95999999999999</v>
       </c>
       <c r="E402" t="n">
-        <v>5.52</v>
+        <v>7.33</v>
       </c>
       <c r="F402" t="n">
-        <v>0.23719</v>
+        <v>0.43513</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>EVRG</t>
+          <t>VRT</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -10089,16 +10089,16 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>70.77</v>
+        <v>121.82</v>
       </c>
       <c r="D403" t="n">
-        <v>75.95999999999999</v>
+        <v>190.01</v>
       </c>
       <c r="E403" t="n">
-        <v>7.33</v>
+        <v>55.98</v>
       </c>
       <c r="F403" t="n">
-        <v>0.43513</v>
+        <v>5.10073</v>
       </c>
     </row>
     <row r="404">
@@ -10128,7 +10128,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>VRT</t>
+          <t>NEE</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -10137,16 +10137,16 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>121.82</v>
+        <v>69.77</v>
       </c>
       <c r="D405" t="n">
-        <v>190.01</v>
+        <v>86.33</v>
       </c>
       <c r="E405" t="n">
-        <v>55.98</v>
+        <v>23.74</v>
       </c>
       <c r="F405" t="n">
-        <v>5.10073</v>
+        <v>1.45522</v>
       </c>
     </row>
     <row r="406">
@@ -10176,7 +10176,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>IBKR</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -10185,16 +10185,16 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>151.14</v>
+        <v>60.16</v>
       </c>
       <c r="D407" t="n">
-        <v>246.27</v>
+        <v>75.27</v>
       </c>
       <c r="E407" t="n">
-        <v>62.94</v>
+        <v>25.12</v>
       </c>
       <c r="F407" t="n">
-        <v>4.6714</v>
+        <v>1.02838</v>
       </c>
     </row>
     <row r="408">
@@ -10224,7 +10224,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>IBKR</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -10233,16 +10233,16 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>60.16</v>
+        <v>151.14</v>
       </c>
       <c r="D409" t="n">
-        <v>75.27</v>
+        <v>246.27</v>
       </c>
       <c r="E409" t="n">
-        <v>25.12</v>
+        <v>62.94</v>
       </c>
       <c r="F409" t="n">
-        <v>1.02838</v>
+        <v>4.6714</v>
       </c>
     </row>
     <row r="410">
@@ -10296,7 +10296,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>ELAN</t>
+          <t>AMAT</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -10305,22 +10305,22 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>17.35</v>
+        <v>156.25</v>
       </c>
       <c r="D412" t="n">
-        <v>24.75</v>
+        <v>328.4</v>
       </c>
       <c r="E412" t="n">
-        <v>42.65</v>
+        <v>110.18</v>
       </c>
       <c r="F412" t="n">
-        <v>0.14638</v>
+        <v>9.156890000000001</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>BILI</t>
+          <t>AEIS</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -10329,22 +10329,22 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>22.28</v>
+        <v>145.25</v>
       </c>
       <c r="D413" t="n">
-        <v>33.24</v>
+        <v>261.82</v>
       </c>
       <c r="E413" t="n">
-        <v>49.19</v>
+        <v>80.25</v>
       </c>
       <c r="F413" t="n">
-        <v>1.26721</v>
+        <v>6.0765</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>STRL</t>
+          <t>ELAN</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -10353,22 +10353,22 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>273.82</v>
+        <v>17.35</v>
       </c>
       <c r="D414" t="n">
-        <v>367.95</v>
+        <v>24.75</v>
       </c>
       <c r="E414" t="n">
-        <v>34.38</v>
+        <v>42.65</v>
       </c>
       <c r="F414" t="n">
-        <v>10.00475</v>
+        <v>0.14638</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>FMX</t>
+          <t>BILI</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -10377,16 +10377,16 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>83.67</v>
+        <v>22.28</v>
       </c>
       <c r="D415" t="n">
-        <v>105.03</v>
+        <v>33.24</v>
       </c>
       <c r="E415" t="n">
-        <v>25.53</v>
+        <v>49.19</v>
       </c>
       <c r="F415" t="n">
-        <v>0.6576</v>
+        <v>1.26721</v>
       </c>
     </row>
     <row r="416">
@@ -10416,7 +10416,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>AEIS</t>
+          <t>FMX</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -10425,22 +10425,22 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>145.25</v>
+        <v>83.67</v>
       </c>
       <c r="D417" t="n">
-        <v>261.82</v>
+        <v>105.03</v>
       </c>
       <c r="E417" t="n">
-        <v>80.25</v>
+        <v>25.53</v>
       </c>
       <c r="F417" t="n">
-        <v>6.0765</v>
+        <v>0.6576</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>STRL</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -10449,22 +10449,22 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>156.25</v>
+        <v>273.82</v>
       </c>
       <c r="D418" t="n">
-        <v>328.4</v>
+        <v>367.95</v>
       </c>
       <c r="E418" t="n">
-        <v>110.18</v>
+        <v>34.38</v>
       </c>
       <c r="F418" t="n">
-        <v>9.156890000000001</v>
+        <v>10.00475</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>FER</t>
+          <t>DY</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -10473,22 +10473,22 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>53.65</v>
+        <v>245.31</v>
       </c>
       <c r="D419" t="n">
-        <v>68.28</v>
+        <v>383.58</v>
       </c>
       <c r="E419" t="n">
-        <v>27.27</v>
+        <v>56.37</v>
       </c>
       <c r="F419" t="n">
-        <v>0.33075</v>
+        <v>3.5464</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>ASML</t>
+          <t>ZTO</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -10497,22 +10497,22 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>725.85</v>
+        <v>17.87</v>
       </c>
       <c r="D420" t="n">
-        <v>1441.39</v>
+        <v>22.13</v>
       </c>
       <c r="E420" t="n">
-        <v>98.58</v>
+        <v>23.84</v>
       </c>
       <c r="F420" t="n">
-        <v>47.81202</v>
+        <v>0.08934</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>NGG</t>
+          <t>FER</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -10521,16 +10521,16 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>67.98</v>
+        <v>53.65</v>
       </c>
       <c r="D421" t="n">
-        <v>84.61</v>
+        <v>68.28</v>
       </c>
       <c r="E421" t="n">
-        <v>24.46</v>
+        <v>27.27</v>
       </c>
       <c r="F421" t="n">
-        <v>1.6239</v>
+        <v>0.33075</v>
       </c>
     </row>
     <row r="422">
@@ -10560,7 +10560,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>LYG</t>
+          <t>LRCX</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -10569,22 +10569,22 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>4.27</v>
+        <v>97.03</v>
       </c>
       <c r="D423" t="n">
-        <v>6.17</v>
+        <v>237.5</v>
       </c>
       <c r="E423" t="n">
-        <v>44.5</v>
+        <v>144.77</v>
       </c>
       <c r="F423" t="n">
-        <v>0.16326</v>
+        <v>9.747629999999999</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>LYG</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -10593,22 +10593,22 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>32.44</v>
+        <v>4.27</v>
       </c>
       <c r="D424" t="n">
-        <v>56.51</v>
+        <v>6.17</v>
       </c>
       <c r="E424" t="n">
-        <v>74.2</v>
+        <v>44.5</v>
       </c>
       <c r="F424" t="n">
-        <v>1.94072</v>
+        <v>0.16326</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>LRCX</t>
+          <t>NGG</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -10617,22 +10617,22 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>97.03</v>
+        <v>67.98</v>
       </c>
       <c r="D425" t="n">
-        <v>237.5</v>
+        <v>84.61</v>
       </c>
       <c r="E425" t="n">
-        <v>144.77</v>
+        <v>24.46</v>
       </c>
       <c r="F425" t="n">
-        <v>9.747629999999999</v>
+        <v>1.6239</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>BWXT</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -10641,22 +10641,22 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>160.03</v>
+        <v>32.44</v>
       </c>
       <c r="D426" t="n">
-        <v>206.04</v>
+        <v>56.51</v>
       </c>
       <c r="E426" t="n">
-        <v>28.75</v>
+        <v>74.2</v>
       </c>
       <c r="F426" t="n">
-        <v>2.74238</v>
+        <v>1.94072</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>ZTO</t>
+          <t>ASML</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -10665,22 +10665,22 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>17.87</v>
+        <v>725.85</v>
       </c>
       <c r="D427" t="n">
-        <v>22.13</v>
+        <v>1441.39</v>
       </c>
       <c r="E427" t="n">
-        <v>23.84</v>
+        <v>98.58</v>
       </c>
       <c r="F427" t="n">
-        <v>0.08934</v>
+        <v>47.81202</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>NVMI</t>
+          <t>BWXT</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -10689,22 +10689,22 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>237.16</v>
+        <v>160.03</v>
       </c>
       <c r="D428" t="n">
-        <v>454.15</v>
+        <v>206.04</v>
       </c>
       <c r="E428" t="n">
-        <v>91.5</v>
+        <v>28.75</v>
       </c>
       <c r="F428" t="n">
-        <v>18.28145</v>
+        <v>2.74238</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>DY</t>
+          <t>NVMI</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -10713,16 +10713,16 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>245.31</v>
+        <v>237.16</v>
       </c>
       <c r="D429" t="n">
-        <v>383.58</v>
+        <v>454.15</v>
       </c>
       <c r="E429" t="n">
-        <v>56.37</v>
+        <v>91.5</v>
       </c>
       <c r="F429" t="n">
-        <v>3.5464</v>
+        <v>18.28145</v>
       </c>
     </row>
     <row r="430">
@@ -10824,7 +10824,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>NSC</t>
+          <t>PUK</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -10833,22 +10833,22 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>272.35</v>
+        <v>25.87</v>
       </c>
       <c r="D434" t="n">
-        <v>291.45</v>
+        <v>33.3</v>
       </c>
       <c r="E434" t="n">
-        <v>7.01</v>
+        <v>28.72</v>
       </c>
       <c r="F434" t="n">
-        <v>0.32072</v>
+        <v>0.53468</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>BCH</t>
+          <t>NSC</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -10857,22 +10857,22 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>28.4</v>
+        <v>272.35</v>
       </c>
       <c r="D435" t="n">
-        <v>44.79</v>
+        <v>291.45</v>
       </c>
       <c r="E435" t="n">
-        <v>57.71</v>
+        <v>7.01</v>
       </c>
       <c r="F435" t="n">
-        <v>1.26153</v>
+        <v>0.32072</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>MNST</t>
+          <t>BCH</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -10881,22 +10881,22 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>61.73</v>
+        <v>28.4</v>
       </c>
       <c r="D436" t="n">
-        <v>81.09999999999999</v>
+        <v>44.79</v>
       </c>
       <c r="E436" t="n">
-        <v>31.38</v>
+        <v>57.71</v>
       </c>
       <c r="F436" t="n">
-        <v>0.61432</v>
+        <v>1.26153</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>PUK</t>
+          <t>SAN</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -10905,22 +10905,22 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>25.87</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="D437" t="n">
-        <v>33.3</v>
+        <v>13.06</v>
       </c>
       <c r="E437" t="n">
-        <v>28.72</v>
+        <v>39.38</v>
       </c>
       <c r="F437" t="n">
-        <v>0.53468</v>
+        <v>0.22373</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>SAN</t>
+          <t>BBVA</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -10929,22 +10929,22 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>9.369999999999999</v>
+        <v>17.96</v>
       </c>
       <c r="D438" t="n">
-        <v>13.06</v>
+        <v>25.93</v>
       </c>
       <c r="E438" t="n">
-        <v>39.38</v>
+        <v>44.38</v>
       </c>
       <c r="F438" t="n">
-        <v>0.22373</v>
+        <v>0.39701</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>BBVA</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -10953,16 +10953,16 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>17.96</v>
+        <v>61.73</v>
       </c>
       <c r="D439" t="n">
-        <v>25.93</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="E439" t="n">
-        <v>44.38</v>
+        <v>31.38</v>
       </c>
       <c r="F439" t="n">
-        <v>0.39701</v>
+        <v>0.61432</v>
       </c>
     </row>
     <row r="440">
@@ -11064,7 +11064,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>CAH</t>
+          <t>COR</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -11073,22 +11073,22 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>146.04</v>
+        <v>288.3</v>
       </c>
       <c r="D444" t="n">
-        <v>218.93</v>
+        <v>363.56</v>
       </c>
       <c r="E444" t="n">
-        <v>49.91</v>
+        <v>26.1</v>
       </c>
       <c r="F444" t="n">
-        <v>1.99176</v>
+        <v>2.66466</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>RTO</t>
+          <t>CAH</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -11097,22 +11097,22 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>23.9</v>
+        <v>146.04</v>
       </c>
       <c r="D445" t="n">
-        <v>31.88</v>
+        <v>218.93</v>
       </c>
       <c r="E445" t="n">
-        <v>33.39</v>
+        <v>49.91</v>
       </c>
       <c r="F445" t="n">
-        <v>0.15162</v>
+        <v>1.99176</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>RTO</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -11121,22 +11121,22 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>72.59999999999999</v>
+        <v>23.9</v>
       </c>
       <c r="D446" t="n">
-        <v>94.75</v>
+        <v>31.88</v>
       </c>
       <c r="E446" t="n">
-        <v>30.51</v>
+        <v>33.39</v>
       </c>
       <c r="F446" t="n">
-        <v>0.6979300000000001</v>
+        <v>0.15162</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>COR</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -11145,16 +11145,16 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>288.3</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D447" t="n">
-        <v>363.56</v>
+        <v>94.75</v>
       </c>
       <c r="E447" t="n">
-        <v>26.1</v>
+        <v>30.51</v>
       </c>
       <c r="F447" t="n">
-        <v>2.66466</v>
+        <v>0.6979300000000001</v>
       </c>
     </row>
     <row r="448">
@@ -11184,7 +11184,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -11193,22 +11193,22 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>115.79</v>
+        <v>715.95</v>
       </c>
       <c r="D449" t="n">
-        <v>437.8</v>
+        <v>946.33</v>
       </c>
       <c r="E449" t="n">
-        <v>278.1</v>
+        <v>32.18</v>
       </c>
       <c r="F449" t="n">
-        <v>26.68195</v>
+        <v>3.38259</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>IDCC</t>
+          <t>VMI</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -11217,22 +11217,22 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>258.54</v>
+        <v>363.84</v>
       </c>
       <c r="D450" t="n">
-        <v>329.38</v>
+        <v>453.69</v>
       </c>
       <c r="E450" t="n">
-        <v>27.4</v>
+        <v>24.69</v>
       </c>
       <c r="F450" t="n">
-        <v>1.41438</v>
+        <v>5.25364</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>ITT</t>
+          <t>BMO</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -11241,22 +11241,22 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>164.9</v>
+        <v>112.54</v>
       </c>
       <c r="D451" t="n">
-        <v>185.89</v>
+        <v>138.45</v>
       </c>
       <c r="E451" t="n">
-        <v>12.73</v>
+        <v>23.02</v>
       </c>
       <c r="F451" t="n">
-        <v>0.70281</v>
+        <v>1.42309</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>ASX</t>
+          <t>MPWR</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -11265,16 +11265,16 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>9.630000000000001</v>
+        <v>820.74</v>
       </c>
       <c r="D452" t="n">
-        <v>19.41</v>
+        <v>1173.22</v>
       </c>
       <c r="E452" t="n">
-        <v>101.56</v>
+        <v>42.95</v>
       </c>
       <c r="F452" t="n">
-        <v>0.41704</v>
+        <v>47.9245</v>
       </c>
     </row>
     <row r="453">
@@ -11304,7 +11304,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>VMI</t>
+          <t>ASX</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -11313,22 +11313,22 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>363.84</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="D454" t="n">
-        <v>453.69</v>
+        <v>19.41</v>
       </c>
       <c r="E454" t="n">
-        <v>24.69</v>
+        <v>101.56</v>
       </c>
       <c r="F454" t="n">
-        <v>5.25364</v>
+        <v>0.41704</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>MPWR</t>
+          <t>FN</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -11337,22 +11337,22 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>820.74</v>
+        <v>277.04</v>
       </c>
       <c r="D455" t="n">
-        <v>1173.22</v>
+        <v>499.61</v>
       </c>
       <c r="E455" t="n">
-        <v>42.95</v>
+        <v>80.34</v>
       </c>
       <c r="F455" t="n">
-        <v>47.9245</v>
+        <v>6.71716</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>WDC</t>
+          <t>MFC</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -11361,22 +11361,22 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>74.66</v>
+        <v>30.06</v>
       </c>
       <c r="D456" t="n">
-        <v>270.23</v>
+        <v>38.38</v>
       </c>
       <c r="E456" t="n">
-        <v>261.95</v>
+        <v>27.68</v>
       </c>
       <c r="F456" t="n">
-        <v>17.18477</v>
+        <v>0.44658</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>BABA</t>
+          <t>ITT</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -11385,22 +11385,22 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>118.09</v>
+        <v>164.9</v>
       </c>
       <c r="D457" t="n">
-        <v>168.39</v>
+        <v>185.89</v>
       </c>
       <c r="E457" t="n">
-        <v>42.59</v>
+        <v>12.73</v>
       </c>
       <c r="F457" t="n">
-        <v>2.44462</v>
+        <v>0.70281</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>BBDO</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -11409,22 +11409,22 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>2.51</v>
+        <v>144.04</v>
       </c>
       <c r="D458" t="n">
-        <v>3.65</v>
+        <v>185.1</v>
       </c>
       <c r="E458" t="n">
-        <v>45.42</v>
+        <v>28.51</v>
       </c>
       <c r="F458" t="n">
-        <v>0.14595</v>
+        <v>0.26926</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>WDC</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -11433,22 +11433,22 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>715.95</v>
+        <v>74.66</v>
       </c>
       <c r="D459" t="n">
-        <v>946.33</v>
+        <v>270.23</v>
       </c>
       <c r="E459" t="n">
-        <v>32.18</v>
+        <v>261.95</v>
       </c>
       <c r="F459" t="n">
-        <v>3.38259</v>
+        <v>17.18477</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -11457,22 +11457,22 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>144.04</v>
+        <v>115.79</v>
       </c>
       <c r="D460" t="n">
-        <v>185.1</v>
+        <v>437.8</v>
       </c>
       <c r="E460" t="n">
-        <v>28.51</v>
+        <v>278.1</v>
       </c>
       <c r="F460" t="n">
-        <v>0.26926</v>
+        <v>26.68195</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>IDCC</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -11481,22 +11481,22 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>224.9</v>
+        <v>258.54</v>
       </c>
       <c r="D461" t="n">
-        <v>270.01</v>
+        <v>329.38</v>
       </c>
       <c r="E461" t="n">
-        <v>20.06</v>
+        <v>27.4</v>
       </c>
       <c r="F461" t="n">
-        <v>0.92194</v>
+        <v>1.41438</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>BABA</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -11505,22 +11505,22 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>277.04</v>
+        <v>118.09</v>
       </c>
       <c r="D462" t="n">
-        <v>499.61</v>
+        <v>168.39</v>
       </c>
       <c r="E462" t="n">
-        <v>80.34</v>
+        <v>42.59</v>
       </c>
       <c r="F462" t="n">
-        <v>6.71716</v>
+        <v>2.44462</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -11529,22 +11529,22 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>109.3</v>
+        <v>224.9</v>
       </c>
       <c r="D463" t="n">
-        <v>249.53</v>
+        <v>270.01</v>
       </c>
       <c r="E463" t="n">
-        <v>128.3</v>
+        <v>20.06</v>
       </c>
       <c r="F463" t="n">
-        <v>8.665900000000001</v>
+        <v>0.92194</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>BMO</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -11553,22 +11553,22 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>112.54</v>
+        <v>92.59</v>
       </c>
       <c r="D464" t="n">
-        <v>138.45</v>
+        <v>116.23</v>
       </c>
       <c r="E464" t="n">
-        <v>23.02</v>
+        <v>25.53</v>
       </c>
       <c r="F464" t="n">
-        <v>1.42309</v>
+        <v>-0.09625</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -11577,22 +11577,22 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>92.59</v>
+        <v>227.33</v>
       </c>
       <c r="D465" t="n">
-        <v>116.23</v>
+        <v>341.36</v>
       </c>
       <c r="E465" t="n">
-        <v>25.53</v>
+        <v>50.16</v>
       </c>
       <c r="F465" t="n">
-        <v>-0.09625</v>
+        <v>4.58455</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>TSM</t>
+          <t>TER</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -11601,22 +11601,22 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>227.33</v>
+        <v>109.3</v>
       </c>
       <c r="D466" t="n">
-        <v>341.36</v>
+        <v>249.53</v>
       </c>
       <c r="E466" t="n">
-        <v>50.16</v>
+        <v>128.3</v>
       </c>
       <c r="F466" t="n">
-        <v>4.58455</v>
+        <v>8.665900000000001</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>MFC</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -11625,22 +11625,22 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>30.06</v>
+        <v>90.66</v>
       </c>
       <c r="D467" t="n">
-        <v>38.38</v>
+        <v>139.18</v>
       </c>
       <c r="E467" t="n">
-        <v>27.68</v>
+        <v>53.52</v>
       </c>
       <c r="F467" t="n">
-        <v>0.44658</v>
+        <v>3.29671</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>BBDO</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -11649,22 +11649,22 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>90.66</v>
+        <v>2.51</v>
       </c>
       <c r="D468" t="n">
-        <v>139.18</v>
+        <v>3.65</v>
       </c>
       <c r="E468" t="n">
-        <v>53.52</v>
+        <v>45.42</v>
       </c>
       <c r="F468" t="n">
-        <v>3.29671</v>
+        <v>0.14595</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>TTMI</t>
+          <t>SCCO</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -11673,16 +11673,16 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>40.06</v>
+        <v>92.95999999999999</v>
       </c>
       <c r="D469" t="n">
-        <v>102.76</v>
+        <v>192.8</v>
       </c>
       <c r="E469" t="n">
-        <v>156.52</v>
+        <v>107.41</v>
       </c>
       <c r="F469" t="n">
-        <v>3.87373</v>
+        <v>7.9199</v>
       </c>
     </row>
     <row r="470">
@@ -11784,7 +11784,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>LSCC</t>
+          <t>TTMI</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -11793,22 +11793,22 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>61.4</v>
+        <v>40.06</v>
       </c>
       <c r="D474" t="n">
-        <v>82.91</v>
+        <v>102.76</v>
       </c>
       <c r="E474" t="n">
-        <v>35.03</v>
+        <v>156.52</v>
       </c>
       <c r="F474" t="n">
-        <v>0.13755</v>
+        <v>3.87373</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>SCCO</t>
+          <t>MOG-B</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -11817,22 +11817,22 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>92.95999999999999</v>
+        <v>195.25</v>
       </c>
       <c r="D475" t="n">
-        <v>192.8</v>
+        <v>295</v>
       </c>
       <c r="E475" t="n">
-        <v>107.41</v>
+        <v>51.09</v>
       </c>
       <c r="F475" t="n">
-        <v>7.9199</v>
+        <v>5.72685</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>CIEN</t>
+          <t>LSCC</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -11841,22 +11841,22 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>86.64</v>
+        <v>61.4</v>
       </c>
       <c r="D476" t="n">
-        <v>268.49</v>
+        <v>82.91</v>
       </c>
       <c r="E476" t="n">
-        <v>209.89</v>
+        <v>35.03</v>
       </c>
       <c r="F476" t="n">
-        <v>7.50166</v>
+        <v>0.13755</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>CIEN</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -11865,22 +11865,22 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>199.32</v>
+        <v>86.64</v>
       </c>
       <c r="D477" t="n">
-        <v>343.69</v>
+        <v>268.49</v>
       </c>
       <c r="E477" t="n">
-        <v>72.43000000000001</v>
+        <v>209.89</v>
       </c>
       <c r="F477" t="n">
-        <v>4.47959</v>
+        <v>7.50166</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>SNDK</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -11889,22 +11889,22 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>44.4</v>
+        <v>199.32</v>
       </c>
       <c r="D478" t="n">
-        <v>665.24</v>
+        <v>343.69</v>
       </c>
       <c r="E478" t="n">
-        <v>1398.29</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="F478" t="n">
-        <v>61.81601</v>
+        <v>4.47959</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>COHR</t>
+          <t>CCJ</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -11913,22 +11913,22 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>86.55</v>
+        <v>70.47</v>
       </c>
       <c r="D479" t="n">
-        <v>222.44</v>
+        <v>120.21</v>
       </c>
       <c r="E479" t="n">
-        <v>157.01</v>
+        <v>70.58</v>
       </c>
       <c r="F479" t="n">
-        <v>8.27528</v>
+        <v>5.15903</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>FTAI</t>
+          <t>TECK</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -11937,22 +11937,22 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>140.4</v>
+        <v>31.27</v>
       </c>
       <c r="D480" t="n">
-        <v>274.39</v>
+        <v>54.56</v>
       </c>
       <c r="E480" t="n">
-        <v>95.43000000000001</v>
+        <v>74.48</v>
       </c>
       <c r="F480" t="n">
-        <v>7.02476</v>
+        <v>1.58669</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>SNDK</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -11961,22 +11961,22 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>200.19</v>
+        <v>44.4</v>
       </c>
       <c r="D481" t="n">
-        <v>344.9</v>
+        <v>665.24</v>
       </c>
       <c r="E481" t="n">
-        <v>72.29000000000001</v>
+        <v>1398.29</v>
       </c>
       <c r="F481" t="n">
-        <v>4.52632</v>
+        <v>61.81601</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>EMBJ</t>
+          <t>KEYS</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -11985,22 +11985,22 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>55.66</v>
+        <v>158.51</v>
       </c>
       <c r="D482" t="n">
-        <v>73.83</v>
+        <v>223.26</v>
       </c>
       <c r="E482" t="n">
-        <v>32.64</v>
+        <v>40.85</v>
       </c>
       <c r="F482" t="n">
-        <v>0.57184</v>
+        <v>3.10145</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>CCJ</t>
+          <t>MKSI</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -12009,22 +12009,22 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>70.47</v>
+        <v>99.37</v>
       </c>
       <c r="D483" t="n">
-        <v>120.21</v>
+        <v>233.57</v>
       </c>
       <c r="E483" t="n">
-        <v>70.58</v>
+        <v>135.05</v>
       </c>
       <c r="F483" t="n">
-        <v>5.15903</v>
+        <v>12.79544</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>MTZ</t>
+          <t>FTI</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -12033,22 +12033,22 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>172.51</v>
+        <v>34.76</v>
       </c>
       <c r="D484" t="n">
-        <v>245.4</v>
+        <v>56.45</v>
       </c>
       <c r="E484" t="n">
-        <v>42.25</v>
+        <v>62.4</v>
       </c>
       <c r="F484" t="n">
-        <v>3.11705</v>
+        <v>1.55467</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>TECK</t>
+          <t>ATI</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -12057,22 +12057,22 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>31.27</v>
+        <v>71.34</v>
       </c>
       <c r="D485" t="n">
-        <v>54.56</v>
+        <v>121.77</v>
       </c>
       <c r="E485" t="n">
-        <v>74.48</v>
+        <v>70.69</v>
       </c>
       <c r="F485" t="n">
-        <v>1.58669</v>
+        <v>0.16334</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>KEYS</t>
+          <t>MTZ</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -12081,16 +12081,16 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>158.51</v>
+        <v>172.51</v>
       </c>
       <c r="D486" t="n">
-        <v>223.26</v>
+        <v>245.4</v>
       </c>
       <c r="E486" t="n">
-        <v>40.85</v>
+        <v>42.25</v>
       </c>
       <c r="F486" t="n">
-        <v>3.10145</v>
+        <v>3.11705</v>
       </c>
     </row>
     <row r="487">
@@ -12120,7 +12120,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>ATI</t>
+          <t>EMBJ</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -12129,22 +12129,22 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>71.34</v>
+        <v>55.66</v>
       </c>
       <c r="D488" t="n">
-        <v>121.77</v>
+        <v>73.83</v>
       </c>
       <c r="E488" t="n">
-        <v>70.69</v>
+        <v>32.64</v>
       </c>
       <c r="F488" t="n">
-        <v>0.16334</v>
+        <v>0.57184</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>FTI</t>
+          <t>GOOG</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -12153,22 +12153,22 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>34.76</v>
+        <v>200.19</v>
       </c>
       <c r="D489" t="n">
-        <v>56.45</v>
+        <v>344.9</v>
       </c>
       <c r="E489" t="n">
-        <v>62.4</v>
+        <v>72.29000000000001</v>
       </c>
       <c r="F489" t="n">
-        <v>1.55467</v>
+        <v>4.52632</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>MKSI</t>
+          <t>FTAI</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -12177,46 +12177,46 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>99.37</v>
+        <v>140.4</v>
       </c>
       <c r="D490" t="n">
-        <v>233.57</v>
+        <v>274.39</v>
       </c>
       <c r="E490" t="n">
-        <v>135.05</v>
+        <v>95.43000000000001</v>
       </c>
       <c r="F490" t="n">
-        <v>12.79544</v>
+        <v>7.02476</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>BBD</t>
+          <t>COHR</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>2.86</v>
+        <v>86.55</v>
       </c>
       <c r="D491" t="n">
-        <v>4.09</v>
+        <v>222.44</v>
       </c>
       <c r="E491" t="n">
-        <v>43.01</v>
+        <v>157.01</v>
       </c>
       <c r="F491" t="n">
-        <v>0.15216</v>
+        <v>8.27528</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>AXIA-P</t>
+          <t>SBS</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -12225,22 +12225,22 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>8.07</v>
+        <v>20.96</v>
       </c>
       <c r="D492" t="n">
-        <v>11.38</v>
+        <v>27.33</v>
       </c>
       <c r="E492" t="n">
-        <v>41.02</v>
+        <v>30.39</v>
       </c>
       <c r="F492" t="n">
-        <v>0.20777</v>
+        <v>0.75234</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>AXIA</t>
+          <t>BSBR</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -12249,22 +12249,22 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>7.58</v>
+        <v>4.77</v>
       </c>
       <c r="D493" t="n">
-        <v>10.6</v>
+        <v>6.99</v>
       </c>
       <c r="E493" t="n">
-        <v>39.84</v>
+        <v>46.54</v>
       </c>
       <c r="F493" t="n">
-        <v>0.20051</v>
+        <v>0.20273</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>HSBC</t>
+          <t>VALE</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -12273,22 +12273,22 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>63.84</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="D494" t="n">
-        <v>89.59999999999999</v>
+        <v>16.14</v>
       </c>
       <c r="E494" t="n">
-        <v>40.35</v>
+        <v>66.22</v>
       </c>
       <c r="F494" t="n">
-        <v>2.08302</v>
+        <v>0.57381</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>MTSI</t>
+          <t>BSAC</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -12297,22 +12297,22 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>121</v>
+        <v>23.51</v>
       </c>
       <c r="D495" t="n">
-        <v>228.56</v>
+        <v>36.19</v>
       </c>
       <c r="E495" t="n">
-        <v>88.89</v>
+        <v>53.93</v>
       </c>
       <c r="F495" t="n">
-        <v>7.14582</v>
+        <v>0.88364</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>HII</t>
+          <t>MDT</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -12321,22 +12321,22 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>265.4</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="D496" t="n">
-        <v>420.3</v>
+        <v>102.71</v>
       </c>
       <c r="E496" t="n">
-        <v>58.36</v>
+        <v>14.25</v>
       </c>
       <c r="F496" t="n">
-        <v>9.18356</v>
+        <v>0.9392200000000001</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>BSBR</t>
+          <t>MTSI</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -12345,22 +12345,22 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>4.77</v>
+        <v>121</v>
       </c>
       <c r="D497" t="n">
-        <v>6.99</v>
+        <v>228.56</v>
       </c>
       <c r="E497" t="n">
-        <v>46.54</v>
+        <v>88.89</v>
       </c>
       <c r="F497" t="n">
-        <v>0.20273</v>
+        <v>7.14582</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>SBS</t>
+          <t>IMO</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -12369,22 +12369,22 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>20.96</v>
+        <v>82.56999999999999</v>
       </c>
       <c r="D498" t="n">
-        <v>27.33</v>
+        <v>102.82</v>
       </c>
       <c r="E498" t="n">
-        <v>30.39</v>
+        <v>24.52</v>
       </c>
       <c r="F498" t="n">
-        <v>0.75234</v>
+        <v>2.47007</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>MDT</t>
+          <t>BBD</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -12393,22 +12393,22 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>89.90000000000001</v>
+        <v>2.86</v>
       </c>
       <c r="D499" t="n">
-        <v>102.71</v>
+        <v>4.09</v>
       </c>
       <c r="E499" t="n">
-        <v>14.25</v>
+        <v>43.01</v>
       </c>
       <c r="F499" t="n">
-        <v>0.9392200000000001</v>
+        <v>0.15216</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>BSAC</t>
+          <t>AXIA</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -12417,22 +12417,22 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>23.51</v>
+        <v>7.58</v>
       </c>
       <c r="D500" t="n">
-        <v>36.19</v>
+        <v>10.6</v>
       </c>
       <c r="E500" t="n">
-        <v>53.93</v>
+        <v>39.84</v>
       </c>
       <c r="F500" t="n">
-        <v>0.88364</v>
+        <v>0.20051</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>IMO</t>
+          <t>AXIA-P</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -12441,22 +12441,22 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>82.56999999999999</v>
+        <v>8.07</v>
       </c>
       <c r="D501" t="n">
-        <v>102.82</v>
+        <v>11.38</v>
       </c>
       <c r="E501" t="n">
-        <v>24.52</v>
+        <v>41.02</v>
       </c>
       <c r="F501" t="n">
-        <v>2.47007</v>
+        <v>0.20777</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>HII</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -12465,22 +12465,22 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>265.93</v>
+        <v>265.4</v>
       </c>
       <c r="D502" t="n">
-        <v>308.71</v>
+        <v>420.3</v>
       </c>
       <c r="E502" t="n">
-        <v>16.09</v>
+        <v>58.36</v>
       </c>
       <c r="F502" t="n">
-        <v>-2.31908</v>
+        <v>9.18356</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>CNQ</t>
+          <t>HSBC</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -12489,22 +12489,22 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>29.31</v>
+        <v>63.84</v>
       </c>
       <c r="D503" t="n">
-        <v>36.5</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="E503" t="n">
-        <v>24.53</v>
+        <v>40.35</v>
       </c>
       <c r="F503" t="n">
-        <v>0.92906</v>
+        <v>2.08302</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>VALE</t>
+          <t>CNQ</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -12513,22 +12513,22 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>9.710000000000001</v>
+        <v>29.31</v>
       </c>
       <c r="D504" t="n">
-        <v>16.14</v>
+        <v>36.5</v>
       </c>
       <c r="E504" t="n">
-        <v>66.22</v>
+        <v>24.53</v>
       </c>
       <c r="F504" t="n">
-        <v>0.57381</v>
+        <v>0.92906</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>GLW</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -12537,22 +12537,22 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>64.52</v>
+        <v>265.93</v>
       </c>
       <c r="D505" t="n">
-        <v>110.36</v>
+        <v>308.71</v>
       </c>
       <c r="E505" t="n">
-        <v>71.05</v>
+        <v>16.09</v>
       </c>
       <c r="F505" t="n">
-        <v>4.17747</v>
+        <v>-2.31908</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>SITM</t>
+          <t>APA</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -12561,22 +12561,22 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>212.77</v>
+        <v>20.24</v>
       </c>
       <c r="D506" t="n">
-        <v>374.18</v>
+        <v>25.89</v>
       </c>
       <c r="E506" t="n">
-        <v>75.86</v>
+        <v>27.92</v>
       </c>
       <c r="F506" t="n">
-        <v>3.96826</v>
+        <v>0.24077</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>APA</t>
+          <t>SITM</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -12585,46 +12585,46 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>20.24</v>
+        <v>212.77</v>
       </c>
       <c r="D507" t="n">
-        <v>25.89</v>
+        <v>374.18</v>
       </c>
       <c r="E507" t="n">
-        <v>27.92</v>
+        <v>75.86</v>
       </c>
       <c r="F507" t="n">
-        <v>0.24077</v>
+        <v>3.96826</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>FE</t>
+          <t>GLW</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>42.83</v>
+        <v>64.52</v>
       </c>
       <c r="D508" t="n">
-        <v>46.99</v>
+        <v>110.36</v>
       </c>
       <c r="E508" t="n">
-        <v>9.710000000000001</v>
+        <v>71.05</v>
       </c>
       <c r="F508" t="n">
-        <v>0.36717</v>
+        <v>4.17747</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>RIO</t>
+          <t>CINF</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -12633,22 +12633,22 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>60.36</v>
+        <v>149.79</v>
       </c>
       <c r="D509" t="n">
-        <v>92.52</v>
+        <v>162.48</v>
       </c>
       <c r="E509" t="n">
-        <v>53.28</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="F509" t="n">
-        <v>2.45458</v>
+        <v>-0.39274</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>CINF</t>
+          <t>FE</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -12657,46 +12657,46 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>149.79</v>
+        <v>42.83</v>
       </c>
       <c r="D510" t="n">
-        <v>162.48</v>
+        <v>46.99</v>
       </c>
       <c r="E510" t="n">
-        <v>8.470000000000001</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="F510" t="n">
-        <v>-0.39274</v>
+        <v>0.36717</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>WFC</t>
+          <t>RIO</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>77.09999999999999</v>
+        <v>60.36</v>
       </c>
       <c r="D511" t="n">
-        <v>92.27</v>
+        <v>92.52</v>
       </c>
       <c r="E511" t="n">
-        <v>19.68</v>
+        <v>53.28</v>
       </c>
       <c r="F511" t="n">
-        <v>0.07776</v>
+        <v>2.45458</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>WFC</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -12705,22 +12705,22 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>66.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D512" t="n">
-        <v>80.64</v>
+        <v>92.27</v>
       </c>
       <c r="E512" t="n">
-        <v>21.81</v>
+        <v>19.68</v>
       </c>
       <c r="F512" t="n">
-        <v>1.14977</v>
+        <v>0.07776</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>FLEX</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -12729,22 +12729,22 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>407.79</v>
+        <v>49</v>
       </c>
       <c r="D513" t="n">
-        <v>690.91</v>
+        <v>64.68000000000001</v>
       </c>
       <c r="E513" t="n">
-        <v>69.43000000000001</v>
+        <v>32</v>
       </c>
       <c r="F513" t="n">
-        <v>13.95787</v>
+        <v>0.28757</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>WCC</t>
+          <t>MOG-A</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -12753,22 +12753,22 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>206.22</v>
+        <v>190.45</v>
       </c>
       <c r="D514" t="n">
-        <v>297.8</v>
+        <v>315.91</v>
       </c>
       <c r="E514" t="n">
-        <v>44.41</v>
+        <v>65.88</v>
       </c>
       <c r="F514" t="n">
-        <v>5.65742</v>
+        <v>8.111140000000001</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>BAC</t>
+          <t>FIX</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -12777,22 +12777,22 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>46.94</v>
+        <v>680.86</v>
       </c>
       <c r="D515" t="n">
-        <v>54.03</v>
+        <v>1176.26</v>
       </c>
       <c r="E515" t="n">
-        <v>15.1</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="F515" t="n">
-        <v>-0.12815</v>
+        <v>30.34339</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>FIX</t>
+          <t>NVT</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -12801,22 +12801,22 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>680.86</v>
+        <v>88.01000000000001</v>
       </c>
       <c r="D516" t="n">
-        <v>1176.26</v>
+        <v>115.79</v>
       </c>
       <c r="E516" t="n">
-        <v>72.76000000000001</v>
+        <v>31.56</v>
       </c>
       <c r="F516" t="n">
-        <v>30.34339</v>
+        <v>1.99679</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>MOG-A</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -12825,22 +12825,22 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>190.45</v>
+        <v>407.79</v>
       </c>
       <c r="D517" t="n">
-        <v>315.91</v>
+        <v>690.91</v>
       </c>
       <c r="E517" t="n">
-        <v>65.88</v>
+        <v>69.43000000000001</v>
       </c>
       <c r="F517" t="n">
-        <v>8.111140000000001</v>
+        <v>13.95787</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -12849,22 +12849,22 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>49</v>
+        <v>66.2</v>
       </c>
       <c r="D518" t="n">
-        <v>64.68000000000001</v>
+        <v>80.64</v>
       </c>
       <c r="E518" t="n">
-        <v>32</v>
+        <v>21.81</v>
       </c>
       <c r="F518" t="n">
-        <v>0.28757</v>
+        <v>1.14977</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>BK</t>
+          <t>BAC</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -12873,22 +12873,22 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>101</v>
+        <v>46.94</v>
       </c>
       <c r="D519" t="n">
-        <v>121.61</v>
+        <v>54.03</v>
       </c>
       <c r="E519" t="n">
-        <v>20.41</v>
+        <v>15.1</v>
       </c>
       <c r="F519" t="n">
-        <v>0.37966</v>
+        <v>-0.12815</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>JCI</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -12897,22 +12897,22 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>103.52</v>
+        <v>101</v>
       </c>
       <c r="D520" t="n">
-        <v>122.98</v>
+        <v>121.61</v>
       </c>
       <c r="E520" t="n">
-        <v>18.8</v>
+        <v>20.41</v>
       </c>
       <c r="F520" t="n">
-        <v>1.59386</v>
+        <v>0.37966</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>DCI</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -12921,22 +12921,22 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>73.38</v>
+        <v>154.43</v>
       </c>
       <c r="D521" t="n">
-        <v>101.17</v>
+        <v>432.95</v>
       </c>
       <c r="E521" t="n">
-        <v>37.87</v>
+        <v>180.35</v>
       </c>
       <c r="F521" t="n">
-        <v>1.50285</v>
+        <v>35.52237</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>HST</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -12945,22 +12945,22 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>154.43</v>
+        <v>15.72</v>
       </c>
       <c r="D522" t="n">
-        <v>432.95</v>
+        <v>18.67</v>
       </c>
       <c r="E522" t="n">
-        <v>180.35</v>
+        <v>18.77</v>
       </c>
       <c r="F522" t="n">
-        <v>35.52237</v>
+        <v>0.05137</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>BIP</t>
+          <t>NDSN</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -12969,22 +12969,22 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>29.81</v>
+        <v>213.44</v>
       </c>
       <c r="D523" t="n">
-        <v>36.62</v>
+        <v>276.91</v>
       </c>
       <c r="E523" t="n">
-        <v>22.84</v>
+        <v>29.74</v>
       </c>
       <c r="F523" t="n">
-        <v>0.46458</v>
+        <v>4.16028</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>HST</t>
+          <t>DCI</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -12993,22 +12993,22 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>15.72</v>
+        <v>73.38</v>
       </c>
       <c r="D524" t="n">
-        <v>18.67</v>
+        <v>101.17</v>
       </c>
       <c r="E524" t="n">
-        <v>18.77</v>
+        <v>37.87</v>
       </c>
       <c r="F524" t="n">
-        <v>0.05137</v>
+        <v>1.50285</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>NDSN</t>
+          <t>BIP</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -13017,22 +13017,22 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>213.44</v>
+        <v>29.81</v>
       </c>
       <c r="D525" t="n">
-        <v>276.91</v>
+        <v>36.62</v>
       </c>
       <c r="E525" t="n">
-        <v>29.74</v>
+        <v>22.84</v>
       </c>
       <c r="F525" t="n">
-        <v>4.16028</v>
+        <v>0.46458</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>NVT</t>
+          <t>JCI</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -13041,46 +13041,46 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>88.01000000000001</v>
+        <v>103.52</v>
       </c>
       <c r="D526" t="n">
-        <v>115.79</v>
+        <v>122.98</v>
       </c>
       <c r="E526" t="n">
-        <v>31.56</v>
+        <v>18.8</v>
       </c>
       <c r="F526" t="n">
-        <v>1.99679</v>
+        <v>1.59386</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>AER</t>
+          <t>WCC</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="C527" t="n">
-        <v>112.74</v>
+        <v>206.22</v>
       </c>
       <c r="D527" t="n">
-        <v>145.32</v>
+        <v>297.8</v>
       </c>
       <c r="E527" t="n">
-        <v>28.9</v>
+        <v>44.41</v>
       </c>
       <c r="F527" t="n">
-        <v>0.15683</v>
+        <v>5.65742</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>NXT</t>
+          <t>NU</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -13089,22 +13089,22 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>53.99</v>
+        <v>12.01</v>
       </c>
       <c r="D528" t="n">
-        <v>115.6</v>
+        <v>18.11</v>
       </c>
       <c r="E528" t="n">
-        <v>114.11</v>
+        <v>50.79</v>
       </c>
       <c r="F528" t="n">
-        <v>6.70823</v>
+        <v>0.31267</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>CX</t>
+          <t>WELL</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -13113,22 +13113,22 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>8.5</v>
+        <v>161.88</v>
       </c>
       <c r="D529" t="n">
-        <v>12.65</v>
+        <v>187.43</v>
       </c>
       <c r="E529" t="n">
-        <v>48.82</v>
+        <v>15.78</v>
       </c>
       <c r="F529" t="n">
-        <v>0.13724</v>
+        <v>-0.01105</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>NU</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -13137,22 +13137,22 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>12.01</v>
+        <v>4.13</v>
       </c>
       <c r="D530" t="n">
-        <v>18.11</v>
+        <v>6.66</v>
       </c>
       <c r="E530" t="n">
-        <v>50.79</v>
+        <v>61.26</v>
       </c>
       <c r="F530" t="n">
-        <v>0.31267</v>
+        <v>-0.01266</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>CX</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -13161,22 +13161,22 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>4.13</v>
+        <v>8.5</v>
       </c>
       <c r="D531" t="n">
-        <v>6.66</v>
+        <v>12.65</v>
       </c>
       <c r="E531" t="n">
-        <v>61.26</v>
+        <v>48.82</v>
       </c>
       <c r="F531" t="n">
-        <v>-0.01266</v>
+        <v>0.13724</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>BEP</t>
+          <t>TPR</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -13185,22 +13185,22 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>24.32</v>
+        <v>95.69</v>
       </c>
       <c r="D532" t="n">
-        <v>29.87</v>
+        <v>129.67</v>
       </c>
       <c r="E532" t="n">
-        <v>22.82</v>
+        <v>35.51</v>
       </c>
       <c r="F532" t="n">
-        <v>0.45039</v>
+        <v>-0.54205</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>LITE</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -13209,22 +13209,22 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>134.36</v>
+        <v>114.62</v>
       </c>
       <c r="D533" t="n">
-        <v>197.8</v>
+        <v>423.42</v>
       </c>
       <c r="E533" t="n">
-        <v>47.22</v>
+        <v>269.41</v>
       </c>
       <c r="F533" t="n">
-        <v>-0.08432000000000001</v>
+        <v>14.89263</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>AER</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -13233,22 +13233,22 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>95.69</v>
+        <v>112.74</v>
       </c>
       <c r="D534" t="n">
-        <v>129.67</v>
+        <v>145.32</v>
       </c>
       <c r="E534" t="n">
-        <v>35.51</v>
+        <v>28.9</v>
       </c>
       <c r="F534" t="n">
-        <v>-0.54205</v>
+        <v>0.15683</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>WELL</t>
+          <t>NXT</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -13257,22 +13257,22 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>161.88</v>
+        <v>53.99</v>
       </c>
       <c r="D535" t="n">
-        <v>187.43</v>
+        <v>115.6</v>
       </c>
       <c r="E535" t="n">
-        <v>15.78</v>
+        <v>114.11</v>
       </c>
       <c r="F535" t="n">
-        <v>-0.01105</v>
+        <v>6.70823</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>LITE</t>
+          <t>BEP</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -13281,46 +13281,46 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>114.62</v>
+        <v>24.32</v>
       </c>
       <c r="D536" t="n">
-        <v>423.42</v>
+        <v>29.87</v>
       </c>
       <c r="E536" t="n">
-        <v>269.41</v>
+        <v>22.82</v>
       </c>
       <c r="F536" t="n">
-        <v>14.89263</v>
+        <v>0.45039</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>IREN</t>
+          <t>FIVE</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="C537" t="n">
-        <v>17.73</v>
+        <v>134.36</v>
       </c>
       <c r="D537" t="n">
-        <v>53.08</v>
+        <v>197.8</v>
       </c>
       <c r="E537" t="n">
-        <v>199.38</v>
+        <v>47.22</v>
       </c>
       <c r="F537" t="n">
-        <v>2.03542</v>
+        <v>-0.08432000000000001</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>CIB</t>
+          <t>IREN</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -13329,46 +13329,46 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>48.46</v>
+        <v>17.73</v>
       </c>
       <c r="D538" t="n">
-        <v>82.55</v>
+        <v>53.08</v>
       </c>
       <c r="E538" t="n">
-        <v>70.34999999999999</v>
+        <v>199.38</v>
       </c>
       <c r="F538" t="n">
-        <v>2.84523</v>
+        <v>2.03542</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>LUMN</t>
+          <t>CIB</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="C539" t="n">
-        <v>3.95</v>
+        <v>48.46</v>
       </c>
       <c r="D539" t="n">
-        <v>8.93</v>
+        <v>82.55</v>
       </c>
       <c r="E539" t="n">
-        <v>126.08</v>
+        <v>70.34999999999999</v>
       </c>
       <c r="F539" t="n">
-        <v>0.18991</v>
+        <v>2.84523</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -13377,22 +13377,22 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>198.64</v>
+        <v>38.22</v>
       </c>
       <c r="D540" t="n">
-        <v>225.64</v>
+        <v>52.47</v>
       </c>
       <c r="E540" t="n">
-        <v>13.59</v>
+        <v>37.28</v>
       </c>
       <c r="F540" t="n">
-        <v>0.25536</v>
+        <v>0.64381</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>BIIB</t>
+          <t>EDU</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -13401,22 +13401,22 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>128.93</v>
+        <v>46.29</v>
       </c>
       <c r="D541" t="n">
-        <v>179.09</v>
+        <v>62.08</v>
       </c>
       <c r="E541" t="n">
-        <v>38.9</v>
+        <v>34.11</v>
       </c>
       <c r="F541" t="n">
-        <v>1.12077</v>
+        <v>1.3805</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>NBIX</t>
+          <t>AXSM</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -13425,22 +13425,22 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>128.89</v>
+        <v>105.23</v>
       </c>
       <c r="D542" t="n">
-        <v>137.63</v>
+        <v>185.88</v>
       </c>
       <c r="E542" t="n">
-        <v>6.78</v>
+        <v>76.64</v>
       </c>
       <c r="F542" t="n">
-        <v>-0.17408</v>
+        <v>3.11619</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>ARWR</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -13449,22 +13449,22 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>17.8</v>
+        <v>54.16</v>
       </c>
       <c r="D543" t="n">
-        <v>73</v>
+        <v>84.27</v>
       </c>
       <c r="E543" t="n">
-        <v>310.11</v>
+        <v>55.59</v>
       </c>
       <c r="F543" t="n">
-        <v>1.0771</v>
+        <v>1.14499</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>DINO</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -13473,22 +13473,22 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>16.07</v>
+        <v>44.33</v>
       </c>
       <c r="D544" t="n">
-        <v>18.34</v>
+        <v>51.86</v>
       </c>
       <c r="E544" t="n">
-        <v>14.13</v>
+        <v>16.99</v>
       </c>
       <c r="F544" t="n">
-        <v>-0.12302</v>
+        <v>0.75637</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>AXSM</t>
+          <t>ABBV</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -13497,22 +13497,22 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>105.23</v>
+        <v>198.64</v>
       </c>
       <c r="D545" t="n">
-        <v>185.88</v>
+        <v>225.64</v>
       </c>
       <c r="E545" t="n">
-        <v>76.64</v>
+        <v>13.59</v>
       </c>
       <c r="F545" t="n">
-        <v>3.11619</v>
+        <v>0.25536</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>INFY</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -13521,22 +13521,22 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>38.22</v>
+        <v>16.07</v>
       </c>
       <c r="D546" t="n">
-        <v>52.47</v>
+        <v>18.34</v>
       </c>
       <c r="E546" t="n">
-        <v>37.28</v>
+        <v>14.13</v>
       </c>
       <c r="F546" t="n">
-        <v>0.64381</v>
+        <v>-0.12302</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>ARWR</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -13545,22 +13545,22 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>46.29</v>
+        <v>17.8</v>
       </c>
       <c r="D547" t="n">
-        <v>62.08</v>
+        <v>73</v>
       </c>
       <c r="E547" t="n">
-        <v>34.11</v>
+        <v>310.11</v>
       </c>
       <c r="F547" t="n">
-        <v>1.3805</v>
+        <v>1.0771</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>ERIC</t>
+          <t>BIIB</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -13569,22 +13569,22 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>7.61</v>
+        <v>128.93</v>
       </c>
       <c r="D548" t="n">
-        <v>10.94</v>
+        <v>179.09</v>
       </c>
       <c r="E548" t="n">
-        <v>43.76</v>
+        <v>38.9</v>
       </c>
       <c r="F548" t="n">
-        <v>0.34355</v>
+        <v>1.12077</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -13593,22 +13593,22 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>54.16</v>
+        <v>41.25</v>
       </c>
       <c r="D549" t="n">
-        <v>84.27</v>
+        <v>156.13</v>
       </c>
       <c r="E549" t="n">
-        <v>55.59</v>
+        <v>278.5</v>
       </c>
       <c r="F549" t="n">
-        <v>1.14499</v>
+        <v>8.586080000000001</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>DINO</t>
+          <t>ERIC</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -13617,22 +13617,22 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>44.33</v>
+        <v>7.61</v>
       </c>
       <c r="D550" t="n">
-        <v>51.86</v>
+        <v>10.94</v>
       </c>
       <c r="E550" t="n">
-        <v>16.99</v>
+        <v>43.76</v>
       </c>
       <c r="F550" t="n">
-        <v>0.75637</v>
+        <v>0.34355</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>BNS</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -13641,22 +13641,22 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>41.25</v>
+        <v>56.41</v>
       </c>
       <c r="D551" t="n">
-        <v>156.13</v>
+        <v>75.2</v>
       </c>
       <c r="E551" t="n">
-        <v>278.5</v>
+        <v>33.31</v>
       </c>
       <c r="F551" t="n">
-        <v>8.586080000000001</v>
+        <v>0.55279</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>CVE</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -13665,22 +13665,22 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>51.15</v>
+        <v>14.83</v>
       </c>
       <c r="D552" t="n">
-        <v>65.28</v>
+        <v>19.46</v>
       </c>
       <c r="E552" t="n">
-        <v>27.62</v>
+        <v>31.22</v>
       </c>
       <c r="F552" t="n">
-        <v>-0.10233</v>
+        <v>0.63453</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>IONS</t>
+          <t>TSEM</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -13689,22 +13689,22 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>41.41</v>
+        <v>46.1</v>
       </c>
       <c r="D553" t="n">
-        <v>83.06999999999999</v>
+        <v>136.89</v>
       </c>
       <c r="E553" t="n">
-        <v>100.6</v>
+        <v>196.94</v>
       </c>
       <c r="F553" t="n">
-        <v>0.98499</v>
+        <v>3.68643</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>EC</t>
+          <t>KRMN</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
@@ -13713,22 +13713,22 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>8.56</v>
+        <v>49.03</v>
       </c>
       <c r="D554" t="n">
-        <v>12.31</v>
+        <v>102.87</v>
       </c>
       <c r="E554" t="n">
-        <v>43.81</v>
+        <v>109.81</v>
       </c>
       <c r="F554" t="n">
-        <v>0.3215</v>
+        <v>2.571</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>HAL</t>
+          <t>CFG</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -13737,22 +13737,22 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>20.97</v>
+        <v>48.14</v>
       </c>
       <c r="D555" t="n">
-        <v>32.83</v>
+        <v>64.86</v>
       </c>
       <c r="E555" t="n">
-        <v>56.56</v>
+        <v>34.73</v>
       </c>
       <c r="F555" t="n">
-        <v>0.39637</v>
+        <v>0.83078</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>CVE</t>
+          <t>AKAM</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -13761,22 +13761,22 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>14.83</v>
+        <v>71.97</v>
       </c>
       <c r="D556" t="n">
-        <v>19.46</v>
+        <v>96.63</v>
       </c>
       <c r="E556" t="n">
-        <v>31.22</v>
+        <v>34.26</v>
       </c>
       <c r="F556" t="n">
-        <v>0.63453</v>
+        <v>2.00213</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>BRK-B</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -13785,22 +13785,22 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>470.39</v>
+        <v>51.15</v>
       </c>
       <c r="D557" t="n">
-        <v>487.29</v>
+        <v>65.28</v>
       </c>
       <c r="E557" t="n">
-        <v>3.59</v>
+        <v>27.62</v>
       </c>
       <c r="F557" t="n">
-        <v>-3.35078</v>
+        <v>-0.10233</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>BNS</t>
+          <t>LUMN</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -13809,22 +13809,22 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>56.41</v>
+        <v>3.95</v>
       </c>
       <c r="D558" t="n">
-        <v>75.2</v>
+        <v>8.93</v>
       </c>
       <c r="E558" t="n">
-        <v>33.31</v>
+        <v>126.08</v>
       </c>
       <c r="F558" t="n">
-        <v>0.55279</v>
+        <v>0.18991</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>ZM</t>
+          <t>EC</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -13833,22 +13833,22 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>69.95999999999999</v>
+        <v>8.56</v>
       </c>
       <c r="D559" t="n">
-        <v>92.86</v>
+        <v>12.31</v>
       </c>
       <c r="E559" t="n">
-        <v>32.74</v>
+        <v>43.81</v>
       </c>
       <c r="F559" t="n">
-        <v>2.2909</v>
+        <v>0.3215</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>TSEM</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -13857,22 +13857,22 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>46.1</v>
+        <v>172.78</v>
       </c>
       <c r="D560" t="n">
-        <v>136.89</v>
+        <v>230.75</v>
       </c>
       <c r="E560" t="n">
-        <v>196.94</v>
+        <v>33.55</v>
       </c>
       <c r="F560" t="n">
-        <v>3.68643</v>
+        <v>4.47084</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>SLF</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -13881,22 +13881,22 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>106.13</v>
+        <v>57.6</v>
       </c>
       <c r="D561" t="n">
-        <v>138.4</v>
+        <v>63.72</v>
       </c>
       <c r="E561" t="n">
-        <v>30.41</v>
+        <v>10.63</v>
       </c>
       <c r="F561" t="n">
-        <v>3.67893</v>
+        <v>0.30429</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>SLF</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -13905,22 +13905,22 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>57.6</v>
+        <v>106.13</v>
       </c>
       <c r="D562" t="n">
-        <v>63.72</v>
+        <v>138.4</v>
       </c>
       <c r="E562" t="n">
-        <v>10.63</v>
+        <v>30.41</v>
       </c>
       <c r="F562" t="n">
-        <v>0.30429</v>
+        <v>3.67893</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>KRMN</t>
+          <t>ZM</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -13929,22 +13929,22 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>49.03</v>
+        <v>69.95999999999999</v>
       </c>
       <c r="D563" t="n">
-        <v>102.87</v>
+        <v>92.86</v>
       </c>
       <c r="E563" t="n">
-        <v>109.81</v>
+        <v>32.74</v>
       </c>
       <c r="F563" t="n">
-        <v>2.571</v>
+        <v>2.2909</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>CFG</t>
+          <t>BRK-B</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -13953,22 +13953,22 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>48.14</v>
+        <v>470.39</v>
       </c>
       <c r="D564" t="n">
-        <v>64.86</v>
+        <v>487.29</v>
       </c>
       <c r="E564" t="n">
-        <v>34.73</v>
+        <v>3.59</v>
       </c>
       <c r="F564" t="n">
-        <v>0.83078</v>
+        <v>-3.35078</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>AKAM</t>
+          <t>HAL</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -13977,22 +13977,22 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>71.97</v>
+        <v>20.97</v>
       </c>
       <c r="D565" t="n">
-        <v>96.63</v>
+        <v>32.83</v>
       </c>
       <c r="E565" t="n">
-        <v>34.26</v>
+        <v>56.56</v>
       </c>
       <c r="F565" t="n">
-        <v>2.00213</v>
+        <v>0.39637</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>IONS</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -14001,22 +14001,22 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>172.78</v>
+        <v>41.41</v>
       </c>
       <c r="D566" t="n">
-        <v>230.75</v>
+        <v>83.06999999999999</v>
       </c>
       <c r="E566" t="n">
-        <v>33.55</v>
+        <v>100.6</v>
       </c>
       <c r="F566" t="n">
-        <v>4.47084</v>
+        <v>0.98499</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>LMT</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -14025,16 +14025,16 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>11.25</v>
+        <v>431.56</v>
       </c>
       <c r="D567" t="n">
-        <v>13.81</v>
+        <v>636</v>
       </c>
       <c r="E567" t="n">
-        <v>22.76</v>
+        <v>47.37</v>
       </c>
       <c r="F567" t="n">
-        <v>0.07438</v>
+        <v>23.40785</v>
       </c>
     </row>
     <row r="568">
@@ -14088,7 +14088,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>CHRW</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
@@ -14097,16 +14097,16 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>94.31999999999999</v>
+        <v>118.77</v>
       </c>
       <c r="D570" t="n">
-        <v>105.78</v>
+        <v>198.5</v>
       </c>
       <c r="E570" t="n">
-        <v>12.15</v>
+        <v>67.13</v>
       </c>
       <c r="F570" t="n">
-        <v>0.42011</v>
+        <v>6.92459</v>
       </c>
     </row>
     <row r="571">
@@ -14136,7 +14136,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>MPC</t>
+          <t>BKR</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
@@ -14145,22 +14145,22 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>159.11</v>
+        <v>42.51</v>
       </c>
       <c r="D572" t="n">
-        <v>176.91</v>
+        <v>56.45</v>
       </c>
       <c r="E572" t="n">
-        <v>11.19</v>
+        <v>32.79</v>
       </c>
       <c r="F572" t="n">
-        <v>0.21281</v>
+        <v>1.67455</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>BKR</t>
+          <t>MPC</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -14169,22 +14169,22 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>42.51</v>
+        <v>159.11</v>
       </c>
       <c r="D573" t="n">
-        <v>56.45</v>
+        <v>176.91</v>
       </c>
       <c r="E573" t="n">
-        <v>32.79</v>
+        <v>11.19</v>
       </c>
       <c r="F573" t="n">
-        <v>1.67455</v>
+        <v>0.21281</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>PSX</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
@@ -14193,22 +14193,22 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>30.1</v>
+        <v>120.04</v>
       </c>
       <c r="D574" t="n">
-        <v>44.43</v>
+        <v>142.24</v>
       </c>
       <c r="E574" t="n">
-        <v>47.63</v>
+        <v>18.49</v>
       </c>
       <c r="F574" t="n">
-        <v>0.46554</v>
+        <v>1.42955</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>PSX</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -14217,22 +14217,22 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>120.04</v>
+        <v>30.1</v>
       </c>
       <c r="D575" t="n">
-        <v>142.24</v>
+        <v>44.43</v>
       </c>
       <c r="E575" t="n">
-        <v>18.49</v>
+        <v>47.63</v>
       </c>
       <c r="F575" t="n">
-        <v>1.42955</v>
+        <v>0.46554</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>ARGX</t>
+          <t>AFL</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -14241,22 +14241,22 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>637.5599999999999</v>
+        <v>103.55</v>
       </c>
       <c r="D576" t="n">
-        <v>835.6799999999999</v>
+        <v>111.95</v>
       </c>
       <c r="E576" t="n">
-        <v>31.07</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="F576" t="n">
-        <v>5.15372</v>
+        <v>0.4857</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>AFL</t>
+          <t>ARGX</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
@@ -14265,16 +14265,16 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>103.55</v>
+        <v>637.5599999999999</v>
       </c>
       <c r="D577" t="n">
-        <v>111.95</v>
+        <v>835.6799999999999</v>
       </c>
       <c r="E577" t="n">
-        <v>8.109999999999999</v>
+        <v>31.07</v>
       </c>
       <c r="F577" t="n">
-        <v>0.4857</v>
+        <v>5.15372</v>
       </c>
     </row>
     <row r="578">
@@ -14304,7 +14304,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>EXAS</t>
+          <t>BWA</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
@@ -14313,22 +14313,22 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>41.74</v>
+        <v>40.14</v>
       </c>
       <c r="D579" t="n">
-        <v>102.5</v>
+        <v>48.15</v>
       </c>
       <c r="E579" t="n">
-        <v>145.57</v>
+        <v>19.96</v>
       </c>
       <c r="F579" t="n">
-        <v>0.19874</v>
+        <v>0.29789</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>EXAS</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -14337,16 +14337,16 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>40.14</v>
+        <v>41.74</v>
       </c>
       <c r="D580" t="n">
-        <v>48.15</v>
+        <v>102.5</v>
       </c>
       <c r="E580" t="n">
-        <v>19.96</v>
+        <v>145.57</v>
       </c>
       <c r="F580" t="n">
-        <v>0.29789</v>
+        <v>0.19874</v>
       </c>
     </row>
     <row r="581">
@@ -14376,7 +14376,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>GMAB</t>
+          <t>TIGO</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
@@ -14385,22 +14385,22 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>21.87</v>
+        <v>43.51</v>
       </c>
       <c r="D582" t="n">
-        <v>33.27</v>
+        <v>60.65</v>
       </c>
       <c r="E582" t="n">
-        <v>52.13</v>
+        <v>39.39</v>
       </c>
       <c r="F582" t="n">
-        <v>-0.03781</v>
+        <v>1.44524</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>TIGO</t>
+          <t>NBIX</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
@@ -14409,22 +14409,22 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>43.51</v>
+        <v>128.89</v>
       </c>
       <c r="D583" t="n">
-        <v>60.65</v>
+        <v>137.63</v>
       </c>
       <c r="E583" t="n">
-        <v>39.39</v>
+        <v>6.78</v>
       </c>
       <c r="F583" t="n">
-        <v>1.44524</v>
+        <v>-0.17408</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>CHRW</t>
+          <t>GMAB</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -14433,16 +14433,16 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>118.77</v>
+        <v>21.87</v>
       </c>
       <c r="D584" t="n">
-        <v>198.5</v>
+        <v>33.27</v>
       </c>
       <c r="E584" t="n">
-        <v>67.13</v>
+        <v>52.13</v>
       </c>
       <c r="F584" t="n">
-        <v>6.92459</v>
+        <v>-0.03781</v>
       </c>
     </row>
     <row r="585">
@@ -14472,7 +14472,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>REXR</t>
+          <t>GIL</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -14481,22 +14481,22 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>37.07</v>
+        <v>49.12</v>
       </c>
       <c r="D586" t="n">
-        <v>40.29</v>
+        <v>66.58</v>
       </c>
       <c r="E586" t="n">
-        <v>8.69</v>
+        <v>35.55</v>
       </c>
       <c r="F586" t="n">
-        <v>0.02054</v>
+        <v>0.51524</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>PLD</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
@@ -14505,16 +14505,16 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>104.81</v>
+        <v>94.31999999999999</v>
       </c>
       <c r="D587" t="n">
-        <v>129.68</v>
+        <v>105.78</v>
       </c>
       <c r="E587" t="n">
-        <v>23.73</v>
+        <v>12.15</v>
       </c>
       <c r="F587" t="n">
-        <v>0.17316</v>
+        <v>0.42011</v>
       </c>
     </row>
     <row r="588">
@@ -14568,7 +14568,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>RY</t>
+          <t>PLD</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -14577,22 +14577,22 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>134.8</v>
+        <v>104.81</v>
       </c>
       <c r="D590" t="n">
-        <v>168.61</v>
+        <v>129.68</v>
       </c>
       <c r="E590" t="n">
-        <v>25.08</v>
+        <v>23.73</v>
       </c>
       <c r="F590" t="n">
-        <v>-0.27574</v>
+        <v>0.17316</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>HCA</t>
+          <t>RY</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -14601,16 +14601,16 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>390.31</v>
+        <v>134.8</v>
       </c>
       <c r="D591" t="n">
-        <v>496.85</v>
+        <v>168.61</v>
       </c>
       <c r="E591" t="n">
-        <v>27.3</v>
+        <v>25.08</v>
       </c>
       <c r="F591" t="n">
-        <v>4.54579</v>
+        <v>-0.27574</v>
       </c>
     </row>
     <row r="592">
@@ -14640,7 +14640,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>LHX</t>
+          <t>HCA</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -14649,22 +14649,22 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>270.21</v>
+        <v>390.31</v>
       </c>
       <c r="D593" t="n">
-        <v>340.24</v>
+        <v>496.85</v>
       </c>
       <c r="E593" t="n">
-        <v>25.92</v>
+        <v>27.3</v>
       </c>
       <c r="F593" t="n">
-        <v>4.85264</v>
+        <v>4.54579</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>LHX</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -14673,22 +14673,22 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>234.77</v>
+        <v>270.21</v>
       </c>
       <c r="D594" t="n">
-        <v>314.73</v>
+        <v>340.24</v>
       </c>
       <c r="E594" t="n">
-        <v>34.06</v>
+        <v>25.92</v>
       </c>
       <c r="F594" t="n">
-        <v>2.55854</v>
+        <v>4.85264</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>MCK</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -14697,22 +14697,22 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>659.01</v>
+        <v>234.77</v>
       </c>
       <c r="D595" t="n">
-        <v>846.51</v>
+        <v>314.73</v>
       </c>
       <c r="E595" t="n">
-        <v>28.45</v>
+        <v>34.06</v>
       </c>
       <c r="F595" t="n">
-        <v>2.14472</v>
+        <v>2.55854</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>ONC</t>
+          <t>MCK</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -14721,22 +14721,22 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>288.1</v>
+        <v>659.01</v>
       </c>
       <c r="D596" t="n">
-        <v>345</v>
+        <v>846.51</v>
       </c>
       <c r="E596" t="n">
-        <v>19.75</v>
+        <v>28.45</v>
       </c>
       <c r="F596" t="n">
-        <v>4.38183</v>
+        <v>2.14472</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>LMT</t>
+          <t>ONC</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -14745,22 +14745,22 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>431.56</v>
+        <v>288.1</v>
       </c>
       <c r="D597" t="n">
-        <v>636</v>
+        <v>345</v>
       </c>
       <c r="E597" t="n">
-        <v>47.37</v>
+        <v>19.75</v>
       </c>
       <c r="F597" t="n">
-        <v>23.40785</v>
+        <v>4.38183</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>TEVA</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -14769,22 +14769,22 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>16.6</v>
+        <v>11.25</v>
       </c>
       <c r="D598" t="n">
-        <v>35.52</v>
+        <v>13.81</v>
       </c>
       <c r="E598" t="n">
-        <v>113.98</v>
+        <v>22.76</v>
       </c>
       <c r="F598" t="n">
-        <v>0.8044</v>
+        <v>0.07438</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>GIL</t>
+          <t>TEVA</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -14793,22 +14793,22 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>49.12</v>
+        <v>16.6</v>
       </c>
       <c r="D599" t="n">
-        <v>66.58</v>
+        <v>35.52</v>
       </c>
       <c r="E599" t="n">
-        <v>35.55</v>
+        <v>113.98</v>
       </c>
       <c r="F599" t="n">
-        <v>0.51524</v>
+        <v>0.8044</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>REXR</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -14817,40 +14817,40 @@
         </is>
       </c>
       <c r="C600" t="n">
-        <v>169.22</v>
+        <v>37.07</v>
       </c>
       <c r="D600" t="n">
-        <v>191.22</v>
+        <v>40.29</v>
       </c>
       <c r="E600" t="n">
-        <v>13</v>
+        <v>8.69</v>
       </c>
       <c r="F600" t="n">
-        <v>1.50581</v>
+        <v>0.02054</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>MOG-B</t>
+          <t>SPG</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="C601" t="n">
-        <v>195</v>
+        <v>169.22</v>
       </c>
       <c r="D601" t="n">
-        <v>295</v>
+        <v>191.22</v>
       </c>
       <c r="E601" t="n">
-        <v>51.28</v>
+        <v>13</v>
       </c>
       <c r="F601" t="n">
-        <v>6.32968</v>
+        <v>1.50581</v>
       </c>
     </row>
   </sheetData>

--- a/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
+++ b/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
@@ -8976,55 +8976,55 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>AZN</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>65.67</v>
+        <v>146.1</v>
       </c>
       <c r="D357" t="n">
-        <v>75.33</v>
+        <v>188.41</v>
       </c>
       <c r="E357" t="n">
-        <v>14.71</v>
+        <v>28.96</v>
       </c>
       <c r="F357" t="n">
-        <v>1.01184</v>
+        <v>0.9958900000000001</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>77.59999999999999</v>
+        <v>65.67</v>
       </c>
       <c r="D358" t="n">
-        <v>113.37</v>
+        <v>75.33</v>
       </c>
       <c r="E358" t="n">
-        <v>46.1</v>
+        <v>14.71</v>
       </c>
       <c r="F358" t="n">
-        <v>0.71731</v>
+        <v>1.01184</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>AZN</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -9033,16 +9033,16 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>73.53</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D359" t="n">
-        <v>188.41</v>
+        <v>113.37</v>
       </c>
       <c r="E359" t="n">
-        <v>156.24</v>
+        <v>46.1</v>
       </c>
       <c r="F359" t="n">
-        <v>9.02647</v>
+        <v>0.71731</v>
       </c>
     </row>
     <row r="360">

--- a/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
+++ b/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
@@ -1842,7 +1842,7 @@
         <v>5.79</v>
       </c>
       <c r="F59" t="n">
-        <v>0.23221</v>
+        <v>0.35771</v>
       </c>
     </row>
     <row r="60">

--- a/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
+++ b/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
@@ -1818,7 +1818,7 @@
         <v>4.48</v>
       </c>
       <c r="F58" t="n">
-        <v>0.08683</v>
+        <v>0.08688</v>
       </c>
     </row>
     <row r="59">

--- a/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
+++ b/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
@@ -2058,7 +2058,7 @@
         <v>14.78</v>
       </c>
       <c r="F68" t="n">
-        <v>7.04602</v>
+        <v>6.32735</v>
       </c>
     </row>
     <row r="69">
@@ -2202,7 +2202,7 @@
         <v>5.79</v>
       </c>
       <c r="F74" t="n">
-        <v>0.35771</v>
+        <v>0.31869</v>
       </c>
     </row>
     <row r="75">

--- a/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
+++ b/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
@@ -14562,7 +14562,7 @@
         <v>32.11</v>
       </c>
       <c r="F589" t="n">
-        <v>0.01426</v>
+        <v>0.07957</v>
       </c>
     </row>
     <row r="590">

--- a/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
+++ b/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
@@ -2178,7 +2178,7 @@
         <v>5.79</v>
       </c>
       <c r="F73" t="n">
-        <v>0.31869</v>
+        <v>0.28929</v>
       </c>
     </row>
     <row r="74">

--- a/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
+++ b/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
@@ -1890,7 +1890,7 @@
         <v>14.78</v>
       </c>
       <c r="F61" t="n">
-        <v>6.32735</v>
+        <v>5.67713</v>
       </c>
     </row>
     <row r="62">
@@ -4524,13 +4524,13 @@
         <v>250.48</v>
       </c>
       <c r="D171" t="n">
-        <v>404.74</v>
+        <v>404.75</v>
       </c>
       <c r="E171" t="n">
         <v>61.59</v>
       </c>
       <c r="F171" t="n">
-        <v>14.13994</v>
+        <v>14.14042</v>
       </c>
     </row>
     <row r="172">

--- a/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
+++ b/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
@@ -804,13 +804,13 @@
         <v>709500</v>
       </c>
       <c r="D16" t="n">
-        <v>762569.62</v>
+        <v>762570</v>
       </c>
       <c r="E16" t="n">
         <v>7.48</v>
       </c>
       <c r="F16" t="n">
-        <v>8157.98075</v>
+        <v>8158.01647</v>
       </c>
     </row>
     <row r="17">

--- a/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
+++ b/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
@@ -2394,7 +2394,7 @@
         <v>14.78</v>
       </c>
       <c r="F82" t="n">
-        <v>5.67713</v>
+        <v>5.08883</v>
       </c>
     </row>
     <row r="83">
@@ -14706,7 +14706,7 @@
         <v>70.09</v>
       </c>
       <c r="F595" t="n">
-        <v>14.51955</v>
+        <v>14.52003</v>
       </c>
     </row>
     <row r="596">

--- a/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
+++ b/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
@@ -14769,16 +14769,16 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>92.95999999999999</v>
+        <v>92.91</v>
       </c>
       <c r="D598" t="n">
         <v>200.04</v>
       </c>
       <c r="E598" t="n">
-        <v>115.2</v>
+        <v>115.3</v>
       </c>
       <c r="F598" t="n">
-        <v>6.20756</v>
+        <v>6.20765</v>
       </c>
     </row>
     <row r="599">

--- a/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
+++ b/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
@@ -2394,7 +2394,7 @@
         <v>14.78</v>
       </c>
       <c r="F82" t="n">
-        <v>5.08883</v>
+        <v>4.60418</v>
       </c>
     </row>
     <row r="83">
@@ -15105,16 +15105,16 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>92.91</v>
+        <v>92.13</v>
       </c>
       <c r="D612" t="n">
-        <v>208.28</v>
+        <v>206.52</v>
       </c>
       <c r="E612" t="n">
         <v>124.17</v>
       </c>
       <c r="F612" t="n">
-        <v>4.93454</v>
+        <v>4.89295</v>
       </c>
     </row>
     <row r="613">

--- a/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
+++ b/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
@@ -2562,7 +2562,7 @@
         <v>14.78</v>
       </c>
       <c r="F89" t="n">
-        <v>4.60418</v>
+        <v>4.16568</v>
       </c>
     </row>
     <row r="90">
@@ -16449,16 +16449,16 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>92.13</v>
+        <v>92.22</v>
       </c>
       <c r="D668" t="n">
         <v>198.9</v>
       </c>
       <c r="E668" t="n">
-        <v>115.9</v>
+        <v>115.68</v>
       </c>
       <c r="F668" t="n">
-        <v>4.8633</v>
+        <v>4.85625</v>
       </c>
     </row>
     <row r="669">
@@ -17274,7 +17274,7 @@
         <v>66.64</v>
       </c>
       <c r="F702" t="n">
-        <v>13.48288</v>
+        <v>11.77594</v>
       </c>
     </row>
     <row r="703">

--- a/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
+++ b/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
@@ -4644,13 +4644,13 @@
         <v>24.8</v>
       </c>
       <c r="D176" t="n">
-        <v>32.48</v>
+        <v>32.5</v>
       </c>
       <c r="E176" t="n">
-        <v>30.98</v>
+        <v>31.06</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9463</v>
+        <v>0.9482</v>
       </c>
     </row>
     <row r="177">
@@ -9612,13 +9612,13 @@
         <v>40.36</v>
       </c>
       <c r="D383" t="n">
-        <v>54.33</v>
+        <v>54.35</v>
       </c>
       <c r="E383" t="n">
-        <v>34.61</v>
+        <v>34.66</v>
       </c>
       <c r="F383" t="n">
-        <v>1.2375</v>
+        <v>1.2394</v>
       </c>
     </row>
     <row r="384">
@@ -12396,13 +12396,13 @@
         <v>31.67</v>
       </c>
       <c r="D499" t="n">
-        <v>48.74</v>
+        <v>48.76</v>
       </c>
       <c r="E499" t="n">
-        <v>53.9</v>
+        <v>53.95</v>
       </c>
       <c r="F499" t="n">
-        <v>0.84732</v>
+        <v>0.84875</v>
       </c>
     </row>
     <row r="500">
@@ -12924,13 +12924,13 @@
         <v>13.89</v>
       </c>
       <c r="D521" t="n">
-        <v>36.6</v>
+        <v>36.61</v>
       </c>
       <c r="E521" t="n">
-        <v>163.5</v>
+        <v>163.57</v>
       </c>
       <c r="F521" t="n">
-        <v>0.91065</v>
+        <v>0.9116</v>
       </c>
     </row>
     <row r="522">
@@ -13188,13 +13188,13 @@
         <v>843.9</v>
       </c>
       <c r="D532" t="n">
-        <v>1479.5</v>
+        <v>1480.12</v>
       </c>
       <c r="E532" t="n">
-        <v>75.31999999999999</v>
+        <v>75.39</v>
       </c>
       <c r="F532" t="n">
-        <v>5.09268</v>
+        <v>5.1522</v>
       </c>
     </row>
     <row r="533">
@@ -15036,13 +15036,13 @@
         <v>320.11</v>
       </c>
       <c r="D609" t="n">
-        <v>428.27</v>
+        <v>428.61</v>
       </c>
       <c r="E609" t="n">
-        <v>33.79</v>
+        <v>33.89</v>
       </c>
       <c r="F609" t="n">
-        <v>-2.60851</v>
+        <v>-2.5766</v>
       </c>
     </row>
     <row r="610">

--- a/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
+++ b/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
@@ -1191,10 +1191,10 @@
         <v>70.23999999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>16.19</v>
+        <v>16.2</v>
       </c>
       <c r="F32" t="n">
-        <v>1.3589</v>
+        <v>1.35937</v>
       </c>
     </row>
     <row r="33">
@@ -2682,7 +2682,7 @@
         <v>14.78</v>
       </c>
       <c r="F94" t="n">
-        <v>4.16568</v>
+        <v>3.76895</v>
       </c>
     </row>
     <row r="95">
@@ -4644,13 +4644,13 @@
         <v>24.8</v>
       </c>
       <c r="D176" t="n">
-        <v>32.5</v>
+        <v>32.48</v>
       </c>
       <c r="E176" t="n">
-        <v>31.06</v>
+        <v>30.98</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9482</v>
+        <v>0.9463</v>
       </c>
     </row>
     <row r="177">
@@ -6204,13 +6204,13 @@
         <v>228.4</v>
       </c>
       <c r="D241" t="n">
-        <v>252.49</v>
+        <v>252.5</v>
       </c>
       <c r="E241" t="n">
         <v>10.55</v>
       </c>
       <c r="F241" t="n">
-        <v>3.45104</v>
+        <v>3.45151</v>
       </c>
     </row>
     <row r="242">
@@ -9612,13 +9612,13 @@
         <v>40.36</v>
       </c>
       <c r="D383" t="n">
-        <v>54.35</v>
+        <v>54.33</v>
       </c>
       <c r="E383" t="n">
-        <v>34.66</v>
+        <v>34.61</v>
       </c>
       <c r="F383" t="n">
-        <v>1.2394</v>
+        <v>1.2375</v>
       </c>
     </row>
     <row r="384">
@@ -12396,13 +12396,13 @@
         <v>31.67</v>
       </c>
       <c r="D499" t="n">
-        <v>48.76</v>
+        <v>48.74</v>
       </c>
       <c r="E499" t="n">
-        <v>53.95</v>
+        <v>53.9</v>
       </c>
       <c r="F499" t="n">
-        <v>0.84875</v>
+        <v>0.84732</v>
       </c>
     </row>
     <row r="500">
@@ -12924,13 +12924,13 @@
         <v>13.89</v>
       </c>
       <c r="D521" t="n">
-        <v>36.61</v>
+        <v>36.6</v>
       </c>
       <c r="E521" t="n">
-        <v>163.57</v>
+        <v>163.5</v>
       </c>
       <c r="F521" t="n">
-        <v>0.9116</v>
+        <v>0.91065</v>
       </c>
     </row>
     <row r="522">
@@ -13188,13 +13188,13 @@
         <v>843.9</v>
       </c>
       <c r="D532" t="n">
-        <v>1480.12</v>
+        <v>1479.5</v>
       </c>
       <c r="E532" t="n">
-        <v>75.39</v>
+        <v>75.31999999999999</v>
       </c>
       <c r="F532" t="n">
-        <v>5.1522</v>
+        <v>5.09268</v>
       </c>
     </row>
     <row r="533">
@@ -15036,13 +15036,13 @@
         <v>320.11</v>
       </c>
       <c r="D609" t="n">
-        <v>428.61</v>
+        <v>428.27</v>
       </c>
       <c r="E609" t="n">
-        <v>33.89</v>
+        <v>33.79</v>
       </c>
       <c r="F609" t="n">
-        <v>-2.5766</v>
+        <v>-2.60851</v>
       </c>
     </row>
     <row r="610">
@@ -15432,7 +15432,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>PSTG</t>
+          <t>MOG-B</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -15441,16 +15441,16 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>55.73</v>
+        <v>195.25</v>
       </c>
       <c r="D626" t="n">
-        <v>76.05</v>
+        <v>325.36</v>
       </c>
       <c r="E626" t="n">
-        <v>36.46</v>
+        <v>66.64</v>
       </c>
       <c r="F626" t="n">
-        <v>1.26484</v>
+        <v>10.72775</v>
       </c>
     </row>
     <row r="627">
@@ -15624,7 +15624,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>SNDK</t>
+          <t>PSTG</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -15633,16 +15633,16 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>45.5</v>
+        <v>55.73</v>
       </c>
       <c r="D634" t="n">
-        <v>599.34</v>
+        <v>76.05</v>
       </c>
       <c r="E634" t="n">
-        <v>1217.23</v>
+        <v>36.46</v>
       </c>
       <c r="F634" t="n">
-        <v>27.0786</v>
+        <v>1.26484</v>
       </c>
     </row>
     <row r="635">
@@ -16344,7 +16344,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>NVT</t>
+          <t>SNDK</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -16353,16 +16353,16 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>88.02</v>
+        <v>45.5</v>
       </c>
       <c r="D664" t="n">
-        <v>112.75</v>
+        <v>599.34</v>
       </c>
       <c r="E664" t="n">
-        <v>28.1</v>
+        <v>1217.23</v>
       </c>
       <c r="F664" t="n">
-        <v>0.33631</v>
+        <v>27.0786</v>
       </c>
     </row>
     <row r="665">
@@ -17040,25 +17040,25 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>MOG-B</t>
+          <t>NVT</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>2025-08-20</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="C693" t="n">
-        <v>195.25</v>
+        <v>88.02</v>
       </c>
       <c r="D693" t="n">
-        <v>325.36</v>
+        <v>112.75</v>
       </c>
       <c r="E693" t="n">
-        <v>66.64</v>
+        <v>28.1</v>
       </c>
       <c r="F693" t="n">
-        <v>11.77594</v>
+        <v>0.33631</v>
       </c>
     </row>
     <row r="694">

--- a/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
+++ b/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
@@ -2562,7 +2562,7 @@
         <v>6.12</v>
       </c>
       <c r="F89" t="n">
-        <v>0.13464</v>
+        <v>0.26658</v>
       </c>
     </row>
     <row r="90">

--- a/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
+++ b/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
@@ -6204,13 +6204,13 @@
         <v>61.73</v>
       </c>
       <c r="D241" t="n">
-        <v>99.79000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="E241" t="n">
-        <v>61.66</v>
+        <v>61.67</v>
       </c>
       <c r="F241" t="n">
-        <v>4.61518</v>
+        <v>4.61566</v>
       </c>
     </row>
     <row r="242">
@@ -14160,7 +14160,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>WDC</t>
+          <t>MOG-B</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -14169,16 +14169,16 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>76.97</v>
+        <v>195.25</v>
       </c>
       <c r="D573" t="n">
-        <v>284.1</v>
+        <v>325.36</v>
       </c>
       <c r="E573" t="n">
-        <v>269.1</v>
+        <v>66.64</v>
       </c>
       <c r="F573" t="n">
-        <v>9.58625</v>
+        <v>9.0632</v>
       </c>
     </row>
     <row r="574">
@@ -14448,7 +14448,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>VALE</t>
+          <t>WDC</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
@@ -14457,22 +14457,22 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>10.12</v>
+        <v>76.97</v>
       </c>
       <c r="D585" t="n">
-        <v>17.04</v>
+        <v>284.1</v>
       </c>
       <c r="E585" t="n">
-        <v>68.38</v>
+        <v>269.1</v>
       </c>
       <c r="F585" t="n">
-        <v>0.42388</v>
+        <v>9.58625</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>SNDK</t>
+          <t>VALE</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -14481,22 +14481,22 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>46.37</v>
+        <v>10.12</v>
       </c>
       <c r="D586" t="n">
-        <v>630.29</v>
+        <v>17.04</v>
       </c>
       <c r="E586" t="n">
-        <v>1259.26</v>
+        <v>68.38</v>
       </c>
       <c r="F586" t="n">
-        <v>27.57969</v>
+        <v>0.42388</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>AER</t>
+          <t>SNDK</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
@@ -14505,22 +14505,22 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>119.44</v>
+        <v>46.37</v>
       </c>
       <c r="D587" t="n">
-        <v>147.76</v>
+        <v>630.29</v>
       </c>
       <c r="E587" t="n">
-        <v>23.71</v>
+        <v>1259.26</v>
       </c>
       <c r="F587" t="n">
-        <v>0.89191</v>
+        <v>27.57969</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>LITE</t>
+          <t>AER</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
@@ -14529,22 +14529,22 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>119.34</v>
+        <v>119.44</v>
       </c>
       <c r="D588" t="n">
-        <v>583.46</v>
+        <v>147.76</v>
       </c>
       <c r="E588" t="n">
-        <v>388.91</v>
+        <v>23.71</v>
       </c>
       <c r="F588" t="n">
-        <v>54.62861</v>
+        <v>0.89191</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>ABVX</t>
+          <t>LITE</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
@@ -14553,22 +14553,22 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>77.28</v>
+        <v>119.34</v>
       </c>
       <c r="D589" t="n">
-        <v>124.54</v>
+        <v>583.46</v>
       </c>
       <c r="E589" t="n">
-        <v>61.15</v>
+        <v>388.91</v>
       </c>
       <c r="F589" t="n">
-        <v>1.53844</v>
+        <v>54.62861</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>ABVX</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -14577,22 +14577,22 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>159.21</v>
+        <v>77.28</v>
       </c>
       <c r="D590" t="n">
-        <v>431.17</v>
+        <v>124.54</v>
       </c>
       <c r="E590" t="n">
-        <v>170.82</v>
+        <v>61.15</v>
       </c>
       <c r="F590" t="n">
-        <v>11.41482</v>
+        <v>1.53844</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>AXIA</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -14601,22 +14601,22 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>7.85</v>
+        <v>159.21</v>
       </c>
       <c r="D591" t="n">
-        <v>11.33</v>
+        <v>431.17</v>
       </c>
       <c r="E591" t="n">
-        <v>44.33</v>
+        <v>170.82</v>
       </c>
       <c r="F591" t="n">
-        <v>0.33733</v>
+        <v>11.41482</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>GLW</t>
+          <t>AXIA</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -14625,22 +14625,22 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>65.77</v>
+        <v>7.85</v>
       </c>
       <c r="D592" t="n">
-        <v>131.5</v>
+        <v>11.33</v>
       </c>
       <c r="E592" t="n">
-        <v>99.94</v>
+        <v>44.33</v>
       </c>
       <c r="F592" t="n">
-        <v>9.30105</v>
+        <v>0.33733</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>IESC</t>
+          <t>GLW</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -14649,22 +14649,22 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>341.11</v>
+        <v>65.77</v>
       </c>
       <c r="D593" t="n">
-        <v>495.49</v>
+        <v>131.5</v>
       </c>
       <c r="E593" t="n">
-        <v>45.26</v>
+        <v>99.94</v>
       </c>
       <c r="F593" t="n">
-        <v>22.4731</v>
+        <v>9.30105</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>IESC</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -14673,40 +14673,40 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>285.8</v>
+        <v>341.11</v>
       </c>
       <c r="D594" t="n">
-        <v>363.06</v>
+        <v>495.49</v>
       </c>
       <c r="E594" t="n">
-        <v>27.03</v>
+        <v>45.26</v>
       </c>
       <c r="F594" t="n">
-        <v>0.51691</v>
+        <v>22.4731</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>MOG-B</t>
+          <t>RL</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>2025-08-21</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="C595" t="n">
-        <v>195.25</v>
+        <v>285.8</v>
       </c>
       <c r="D595" t="n">
-        <v>325.36</v>
+        <v>363.06</v>
       </c>
       <c r="E595" t="n">
-        <v>66.64</v>
+        <v>27.03</v>
       </c>
       <c r="F595" t="n">
-        <v>10.72775</v>
+        <v>0.51691</v>
       </c>
     </row>
     <row r="596">

--- a/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
+++ b/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
@@ -2730,7 +2730,7 @@
         <v>6.12</v>
       </c>
       <c r="F96" t="n">
-        <v>0.26658</v>
+        <v>0.23738</v>
       </c>
     </row>
     <row r="97">

--- a/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
+++ b/dip_yakalama_daily_120dip_rebound_sonuclar.xlsx
@@ -2370,7 +2370,7 @@
         <v>23.73</v>
       </c>
       <c r="F81" t="n">
-        <v>6.29667</v>
+        <v>8.58365</v>
       </c>
     </row>
     <row r="82">
